--- a/Sigmoid.xlsx
+++ b/Sigmoid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>X-Fix</t>
+  </si>
+  <si>
+    <t>Y-Fix</t>
+  </si>
+  <si>
+    <t>X-fix(15-5)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -171,7 +191,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$97</c:f>
+              <c:f>Sheet1!$B$2:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
@@ -471,7 +491,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$97</c:f>
+              <c:f>Sheet1!$C$2:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
@@ -1516,16 +1536,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1810,1273 +1830,2655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <f>-6+(A1-1)*0.125</f>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>-6+(A2-1)*0.125</f>
         <v>-6</v>
       </c>
-      <c r="C1">
-        <f>1/(1+EXP(-B1))</f>
+      <c r="C2">
+        <f>1/(1+EXP(-B2))</f>
         <v>2.4726231566347743E-3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D2" t="str">
+        <f>(DEC2BIN(B2*2^3)) &amp;"00000"</f>
+        <v>111101000000000</v>
+      </c>
+      <c r="E2" t="str">
+        <f>(DEC2BIN(B2*2^3))</f>
+        <v>1111010000</v>
+      </c>
+      <c r="F2" t="str">
+        <f>DEC2BIN(ROUND(C2*2^8,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B65" si="0">-6+(A2-1)*0.125</f>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">-6+(A3-1)*0.125</f>
         <v>-5.875</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C65" si="1">1/(1+EXP(-B2))</f>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">1/(1+EXP(-B3))</f>
         <v>2.8009269671209736E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D3" t="str">
+        <f>(DEC2BIN(B3*2^3)) &amp;"00000"</f>
+        <v>111101000100000</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="2">(DEC2BIN(B3*2^3))</f>
+        <v>1111010001</v>
+      </c>
+      <c r="F3" t="str">
+        <f>DEC2BIN(ROUND(C3*2^8,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>-5.75</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f t="shared" si="1"/>
         <v>3.1726828424851893E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D4" t="str">
+        <f>(DEC2BIN(B4*2^3)) &amp;"00000"</f>
+        <v>111101001000000</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>1111010010</v>
+      </c>
+      <c r="F4" t="str">
+        <f>DEC2BIN(ROUND(C4*2^8,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>-5.625</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <f t="shared" si="1"/>
         <v>3.59360258142009E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D5" t="str">
+        <f>(DEC2BIN(B5*2^3)) &amp;"00000"</f>
+        <v>111101001100000</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>1111010011</v>
+      </c>
+      <c r="F5" t="str">
+        <f>DEC2BIN(ROUND(C5*2^8,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>-5.5</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <f t="shared" si="1"/>
         <v>4.0701377158961277E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D6" t="str">
+        <f>(DEC2BIN(B6*2^3)) &amp;"00000"</f>
+        <v>111101010000000</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>1111010100</v>
+      </c>
+      <c r="F6" t="str">
+        <f>DEC2BIN(ROUND(C6*2^8,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>-5.375</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>4.6095721793742083E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D7" t="str">
+        <f>(DEC2BIN(B7*2^3)) &amp;"00000"</f>
+        <v>111101010100000</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>1111010101</v>
+      </c>
+      <c r="F7" t="str">
+        <f>DEC2BIN(ROUND(C7*2^8,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>-5.25</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f t="shared" si="1"/>
         <v>5.2201256935583973E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D8" t="str">
+        <f>(DEC2BIN(B8*2^3)) &amp;"00000"</f>
+        <v>111101011000000</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>1111010110</v>
+      </c>
+      <c r="F8" t="str">
+        <f>DEC2BIN(ROUND(C8*2^8,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>-5.125</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f t="shared" si="1"/>
         <v>5.9110688562437957E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D9" t="str">
+        <f>(DEC2BIN(B9*2^3)) &amp;"00000"</f>
+        <v>111101011100000</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>1111010111</v>
+      </c>
+      <c r="F9" t="str">
+        <f>DEC2BIN(ROUND(C9*2^8,0))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>6.6928509242848554E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D10" t="str">
+        <f>(DEC2BIN(B10*2^3)) &amp;"00000"</f>
+        <v>111101100000000</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>1111011000</v>
+      </c>
+      <c r="F10" t="str">
+        <f>DEC2BIN(ROUND(C10*2^8,0))</f>
         <v>10</v>
       </c>
-      <c r="B10">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>-4.875</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>7.577241267860811E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D11" t="str">
+        <f>(DEC2BIN(B11*2^3)) &amp;"00000"</f>
+        <v>111101100100000</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>1111011001</v>
+      </c>
+      <c r="F11" t="str">
+        <f>DEC2BIN(ROUND(C11*2^8,0))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>-4.75</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <f t="shared" si="1"/>
         <v>8.5774854137119841E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D12" t="str">
+        <f>(DEC2BIN(B12*2^3)) &amp;"00000"</f>
+        <v>111101101000000</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>1111011010</v>
+      </c>
+      <c r="F12" t="str">
+        <f>DEC2BIN(ROUND(C12*2^8,0))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>-4.625</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>9.7084764814740661E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="D13" t="str">
+        <f>(DEC2BIN(B13*2^3)) &amp;"00000"</f>
+        <v>111101101100000</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>1111011011</v>
+      </c>
+      <c r="F13" t="str">
+        <f>DEC2BIN(ROUND(C13*2^8,0))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>-4.5</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>1.098694263059318E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D14" t="str">
+        <f>(DEC2BIN(B14*2^3)) &amp;"00000"</f>
+        <v>111101110000000</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="2"/>
+        <v>1111011100</v>
+      </c>
+      <c r="F14" t="str">
+        <f>DEC2BIN(ROUND(C14*2^8,0))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>-4.375</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>1.243165085318582E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D15" t="str">
+        <f>(DEC2BIN(B15*2^3)) &amp;"00000"</f>
+        <v>111101110100000</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>1111011101</v>
+      </c>
+      <c r="F15" t="str">
+        <f>DEC2BIN(ROUND(C15*2^8,0))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>-4.25</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>1.4063627043245475E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D16" t="str">
+        <f>(DEC2BIN(B16*2^3)) &amp;"00000"</f>
+        <v>111101111000000</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>1111011110</v>
+      </c>
+      <c r="F16" t="str">
+        <f>DEC2BIN(ROUND(C16*2^8,0))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>-4.125</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>1.5906391711814714E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D17" t="str">
+        <f>(DEC2BIN(B17*2^3)) &amp;"00000"</f>
+        <v>111101111100000</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>1111011111</v>
+      </c>
+      <c r="F17" t="str">
+        <f>DEC2BIN(ROUND(C17*2^8,0))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f t="shared" si="1"/>
         <v>1.7986209962091559E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="D18" t="str">
+        <f>(DEC2BIN(B18*2^3)) &amp;"00000"</f>
+        <v>111110000000000</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>1111100000</v>
+      </c>
+      <c r="F18" t="str">
+        <f>DEC2BIN(ROUND(C18*2^8,0))</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>-3.875</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <f t="shared" si="1"/>
         <v>2.0332353342658753E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D19" t="str">
+        <f>(DEC2BIN(B19*2^3)) &amp;"00000"</f>
+        <v>111110000100000</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>1111100001</v>
+      </c>
+      <c r="F19" t="str">
+        <f>DEC2BIN(ROUND(C19*2^8,0))</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>-3.75</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <f t="shared" si="1"/>
         <v>2.2977369910025615E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="D20" t="str">
+        <f>(DEC2BIN(B20*2^3)) &amp;"00000"</f>
+        <v>111110001000000</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>1111100010</v>
+      </c>
+      <c r="F20" t="str">
+        <f>DEC2BIN(ROUND(C20*2^8,0))</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>-3.625</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <f t="shared" si="1"/>
         <v>2.5957357197796852E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="D21" t="str">
+        <f>(DEC2BIN(B21*2^3)) &amp;"00000"</f>
+        <v>111110001100000</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>1111100011</v>
+      </c>
+      <c r="F21" t="str">
+        <f>DEC2BIN(ROUND(C21*2^8,0))</f>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>-3.5</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>2.9312230751356319E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="D22" t="str">
+        <f>(DEC2BIN(B22*2^3)) &amp;"00000"</f>
+        <v>111110010000000</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="2"/>
+        <v>1111100100</v>
+      </c>
+      <c r="F22" t="str">
+        <f>DEC2BIN(ROUND(C22*2^8,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>-3.375</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <f t="shared" si="1"/>
         <v>3.3085978388704126E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="D23" t="str">
+        <f>(DEC2BIN(B23*2^3)) &amp;"00000"</f>
+        <v>111110010100000</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="2"/>
+        <v>1111100101</v>
+      </c>
+      <c r="F23" t="str">
+        <f>DEC2BIN(ROUND(C23*2^8,0))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>-3.25</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>3.7326887344129457E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="D24" t="str">
+        <f>(DEC2BIN(B24*2^3)) &amp;"00000"</f>
+        <v>111110011000000</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="2"/>
+        <v>1111100110</v>
+      </c>
+      <c r="F24" t="str">
+        <f>DEC2BIN(ROUND(C24*2^8,0))</f>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <f t="shared" si="0"/>
         <v>-3.125</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <f t="shared" si="1"/>
         <v>4.2087727915618836E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="D25" t="str">
+        <f>(DEC2BIN(B25*2^3)) &amp;"00000"</f>
+        <v>111110011100000</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="2"/>
+        <v>1111100111</v>
+      </c>
+      <c r="F25" t="str">
+        <f>DEC2BIN(ROUND(C25*2^8,0))</f>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f t="shared" si="1"/>
         <v>4.7425873177566781E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="D26" t="str">
+        <f>(DEC2BIN(B26*2^3)) &amp;"00000"</f>
+        <v>111110100000000</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>1111101000</v>
+      </c>
+      <c r="F26" t="str">
+        <f>DEC2BIN(ROUND(C26*2^8,0))</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>-2.875</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <f t="shared" si="1"/>
         <v>5.3403329799824227E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="D27" t="str">
+        <f>(DEC2BIN(B27*2^3)) &amp;"00000"</f>
+        <v>111110100100000</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>1111101001</v>
+      </c>
+      <c r="F27" t="str">
+        <f>DEC2BIN(ROUND(C27*2^8,0))</f>
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>-2.75</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <f t="shared" si="1"/>
         <v>6.0086650174007626E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="D28" t="str">
+        <f>(DEC2BIN(B28*2^3)) &amp;"00000"</f>
+        <v>111110101000000</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>1111101010</v>
+      </c>
+      <c r="F28" t="str">
+        <f>DEC2BIN(ROUND(C28*2^8,0))</f>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <f t="shared" si="0"/>
         <v>-2.625</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f t="shared" si="1"/>
         <v>6.7546691139629106E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="D29" t="str">
+        <f>(DEC2BIN(B29*2^3)) &amp;"00000"</f>
+        <v>111110101100000</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>1111101011</v>
+      </c>
+      <c r="F29" t="str">
+        <f>DEC2BIN(ROUND(C29*2^8,0))</f>
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <f t="shared" si="0"/>
         <v>-2.5</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <f t="shared" si="1"/>
         <v>7.5858180021243546E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="D30" t="str">
+        <f>(DEC2BIN(B30*2^3)) &amp;"00000"</f>
+        <v>111110110000000</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>1111101100</v>
+      </c>
+      <c r="F30" t="str">
+        <f>DEC2BIN(ROUND(C30*2^8,0))</f>
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <f t="shared" si="0"/>
         <v>-2.375</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <f t="shared" si="1"/>
         <v>8.5099045007020244E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="D31" t="str">
+        <f>(DEC2BIN(B31*2^3)) &amp;"00000"</f>
+        <v>111110110100000</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>1111101101</v>
+      </c>
+      <c r="F31" t="str">
+        <f>DEC2BIN(ROUND(C31*2^8,0))</f>
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <f t="shared" si="0"/>
         <v>-2.25</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <f t="shared" si="1"/>
         <v>9.534946489910949E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="D32" t="str">
+        <f>(DEC2BIN(B32*2^3)) &amp;"00000"</f>
+        <v>111110111000000</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>1111101110</v>
+      </c>
+      <c r="F32" t="str">
+        <f>DEC2BIN(ROUND(C32*2^8,0))</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <f t="shared" si="0"/>
         <v>-2.125</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <f t="shared" si="1"/>
         <v>0.10669059394565118</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="D33" t="str">
+        <f>(DEC2BIN(B33*2^3)) &amp;"00000"</f>
+        <v>111110111100000</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>1111101111</v>
+      </c>
+      <c r="F33" t="str">
+        <f>DEC2BIN(ROUND(C33*2^8,0))</f>
+        <v>11011</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f t="shared" si="1"/>
         <v>0.11920292202211755</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="D34" t="str">
+        <f>(DEC2BIN(B34*2^3)) &amp;"00000"</f>
+        <v>111111000000000</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>1111110000</v>
+      </c>
+      <c r="F34" t="str">
+        <f>DEC2BIN(ROUND(C34*2^8,0))</f>
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <f t="shared" si="0"/>
         <v>-1.875</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <f t="shared" si="1"/>
         <v>0.13296424019782926</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="D35" t="str">
+        <f>(DEC2BIN(B35*2^3)) &amp;"00000"</f>
+        <v>111111000100000</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>1111110001</v>
+      </c>
+      <c r="F35" t="str">
+        <f>DEC2BIN(ROUND(C35*2^8,0))</f>
+        <v>100010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <f t="shared" si="0"/>
         <v>-1.75</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <f t="shared" si="1"/>
         <v>0.14804719803168948</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="D36" t="str">
+        <f>(DEC2BIN(B36*2^3)) &amp;"00000"</f>
+        <v>111111001000000</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>1111110010</v>
+      </c>
+      <c r="F36" t="str">
+        <f>DEC2BIN(ROUND(C36*2^8,0))</f>
+        <v>100110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <f t="shared" si="0"/>
         <v>-1.625</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <f t="shared" si="1"/>
         <v>0.16451646289656316</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="D37" t="str">
+        <f>(DEC2BIN(B37*2^3)) &amp;"00000"</f>
+        <v>111111001100000</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>1111110011</v>
+      </c>
+      <c r="F37" t="str">
+        <f>DEC2BIN(ROUND(C37*2^8,0))</f>
+        <v>101010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <f t="shared" si="1"/>
         <v>0.18242552380635635</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="D38" t="str">
+        <f>(DEC2BIN(B38*2^3)) &amp;"00000"</f>
+        <v>111111010000000</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="2"/>
+        <v>1111110100</v>
+      </c>
+      <c r="F38" t="str">
+        <f>DEC2BIN(ROUND(C38*2^8,0))</f>
+        <v>101111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <f t="shared" si="0"/>
         <v>-1.375</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <f t="shared" si="1"/>
         <v>0.20181322226037884</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="D39" t="str">
+        <f>(DEC2BIN(B39*2^3)) &amp;"00000"</f>
+        <v>111111010100000</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="2"/>
+        <v>1111110101</v>
+      </c>
+      <c r="F39" t="str">
+        <f>DEC2BIN(ROUND(C39*2^8,0))</f>
+        <v>110100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <f t="shared" si="0"/>
         <v>-1.25</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <f t="shared" si="1"/>
         <v>0.22270013882530884</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="D40" t="str">
+        <f>(DEC2BIN(B40*2^3)) &amp;"00000"</f>
+        <v>111111011000000</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="2"/>
+        <v>1111110110</v>
+      </c>
+      <c r="F40" t="str">
+        <f>DEC2BIN(ROUND(C40*2^8,0))</f>
+        <v>111001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <f t="shared" si="0"/>
         <v>-1.125</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <f t="shared" si="1"/>
         <v>0.24508501313237172</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="D41" t="str">
+        <f>(DEC2BIN(B41*2^3)) &amp;"00000"</f>
+        <v>111111011100000</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="2"/>
+        <v>1111110111</v>
+      </c>
+      <c r="F41" t="str">
+        <f>DEC2BIN(ROUND(C41*2^8,0))</f>
+        <v>111111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <f t="shared" si="1"/>
         <v>0.2689414213699951</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="D42" t="str">
+        <f>(DEC2BIN(B42*2^3)) &amp;"00000"</f>
+        <v>111111100000000</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="2"/>
+        <v>1111111000</v>
+      </c>
+      <c r="F42" t="str">
+        <f>DEC2BIN(ROUND(C42*2^8,0))</f>
+        <v>1000101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <f t="shared" si="0"/>
         <v>-0.875</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <f t="shared" si="1"/>
         <v>0.29421497216298875</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="D43" t="str">
+        <f>(DEC2BIN(B43*2^3)) &amp;"00000"</f>
+        <v>111111100100000</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="2"/>
+        <v>1111111001</v>
+      </c>
+      <c r="F43" t="str">
+        <f>DEC2BIN(ROUND(C43*2^8,0))</f>
+        <v>1001011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <f t="shared" si="0"/>
         <v>-0.75</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <f t="shared" si="1"/>
         <v>0.32082130082460703</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="D44" t="str">
+        <f>(DEC2BIN(B44*2^3)) &amp;"00000"</f>
+        <v>111111101000000</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="2"/>
+        <v>1111111010</v>
+      </c>
+      <c r="F44" t="str">
+        <f>DEC2BIN(ROUND(C44*2^8,0))</f>
+        <v>1010010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <f t="shared" si="0"/>
         <v>-0.625</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <f t="shared" si="1"/>
         <v>0.34864513533394575</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="D45" t="str">
+        <f>(DEC2BIN(B45*2^3)) &amp;"00000"</f>
+        <v>111111101100000</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="2"/>
+        <v>1111111011</v>
+      </c>
+      <c r="F45" t="str">
+        <f>DEC2BIN(ROUND(C45*2^8,0))</f>
+        <v>1011001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <f t="shared" si="1"/>
         <v>0.37754066879814541</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="D46" t="str">
+        <f>(DEC2BIN(B46*2^3)) &amp;"00000"</f>
+        <v>111111110000000</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="2"/>
+        <v>1111111100</v>
+      </c>
+      <c r="F46" t="str">
+        <f>DEC2BIN(ROUND(C46*2^8,0))</f>
+        <v>1100001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <f t="shared" si="0"/>
         <v>-0.375</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <f t="shared" si="1"/>
         <v>0.40733340004593027</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="D47" t="str">
+        <f>(DEC2BIN(B47*2^3)) &amp;"00000"</f>
+        <v>111111110100000</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="2"/>
+        <v>1111111101</v>
+      </c>
+      <c r="F47" t="str">
+        <f>DEC2BIN(ROUND(C47*2^8,0))</f>
+        <v>1101000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <f t="shared" si="0"/>
         <v>-0.25</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <f t="shared" si="1"/>
         <v>0.43782349911420193</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="D48" t="str">
+        <f>(DEC2BIN(B48*2^3)) &amp;"00000"</f>
+        <v>111111111000000</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="2"/>
+        <v>1111111110</v>
+      </c>
+      <c r="F48" t="str">
+        <f>DEC2BIN(ROUND(C48*2^8,0))</f>
+        <v>1110000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <f t="shared" si="0"/>
         <v>-0.125</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f t="shared" si="1"/>
         <v>0.46879062662624377</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="D49" t="str">
+        <f>(DEC2BIN(B49*2^3)) &amp;"00000"</f>
+        <v>111111111100000</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="2"/>
+        <v>1111111111</v>
+      </c>
+      <c r="F49" t="str">
+        <f>DEC2BIN(ROUND(C49*2^8,0))</f>
+        <v>1111000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="D50" t="str">
+        <f>(DEC2BIN(B50*2^3)) &amp;"00000"</f>
+        <v>000000</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <f>DEC2BIN(ROUND(C50*2^8,0))</f>
+        <v>10000000</v>
+      </c>
+      <c r="G50" t="str">
+        <f>"6'b"&amp;E50&amp;" : data = 16'b"&amp;F50&amp;";"</f>
+        <v>6'b0 : data = 16'b10000000;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <f t="shared" si="1"/>
         <v>0.53120937337375629</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="D51" t="str">
+        <f>(DEC2BIN(B51*2^3)) &amp;"00000"</f>
+        <v>100000</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
+        <f>DEC2BIN(ROUND(C51*2^8,0))</f>
+        <v>10001000</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" ref="G51:G98" si="3">"6'b"&amp;E51&amp;" : data = 16'b"&amp;F51&amp;";"</f>
+        <v>6'b1 : data = 16'b10001000;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <f t="shared" si="1"/>
         <v>0.56217650088579807</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="D52" t="str">
+        <f>(DEC2BIN(B52*2^3)) &amp;"00000"</f>
+        <v>1000000</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F52" t="str">
+        <f>DEC2BIN(ROUND(C52*2^8,0))</f>
+        <v>10010000</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b10 : data = 16'b10010000;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <f t="shared" si="1"/>
         <v>0.59266659995406967</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="D53" t="str">
+        <f>(DEC2BIN(B53*2^3)) &amp;"00000"</f>
+        <v>1100000</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F53" t="str">
+        <f>DEC2BIN(ROUND(C53*2^8,0))</f>
+        <v>10011000</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b11 : data = 16'b10011000;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <f t="shared" si="1"/>
         <v>0.62245933120185459</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="D54" t="str">
+        <f>(DEC2BIN(B54*2^3)) &amp;"00000"</f>
+        <v>10000000</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="F54" t="str">
+        <f>DEC2BIN(ROUND(C54*2^8,0))</f>
+        <v>10011111</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b100 : data = 16'b10011111;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <f t="shared" si="1"/>
         <v>0.65135486466605419</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="D55" t="str">
+        <f>(DEC2BIN(B55*2^3)) &amp;"00000"</f>
+        <v>10100000</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="F55" t="str">
+        <f>DEC2BIN(ROUND(C55*2^8,0))</f>
+        <v>10100111</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b101 : data = 16'b10100111;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <f t="shared" si="1"/>
         <v>0.67917869917539297</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="D56" t="str">
+        <f>(DEC2BIN(B56*2^3)) &amp;"00000"</f>
+        <v>11000000</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="F56" t="str">
+        <f>DEC2BIN(ROUND(C56*2^8,0))</f>
+        <v>10101110</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b110 : data = 16'b10101110;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <f t="shared" si="1"/>
         <v>0.70578502783701125</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="D57" t="str">
+        <f>(DEC2BIN(B57*2^3)) &amp;"00000"</f>
+        <v>11100000</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="F57" t="str">
+        <f>DEC2BIN(ROUND(C57*2^8,0))</f>
+        <v>10110101</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b111 : data = 16'b10110101;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <f t="shared" si="1"/>
         <v>0.7310585786300049</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="D58" t="str">
+        <f>(DEC2BIN(B58*2^3)) &amp;"00000"</f>
+        <v>100000000</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="F58" t="str">
+        <f>DEC2BIN(ROUND(C58*2^8,0))</f>
+        <v>10111011</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b1000 : data = 16'b10111011;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <f t="shared" si="1"/>
         <v>0.75491498686762826</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="D59" t="str">
+        <f>(DEC2BIN(B59*2^3)) &amp;"00000"</f>
+        <v>100100000</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="2"/>
+        <v>1001</v>
+      </c>
+      <c r="F59" t="str">
+        <f>DEC2BIN(ROUND(C59*2^8,0))</f>
+        <v>11000001</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b1001 : data = 16'b11000001;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <f t="shared" si="1"/>
         <v>0.77729986117469108</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="D60" t="str">
+        <f>(DEC2BIN(B60*2^3)) &amp;"00000"</f>
+        <v>101000000</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="2"/>
+        <v>1010</v>
+      </c>
+      <c r="F60" t="str">
+        <f>DEC2BIN(ROUND(C60*2^8,0))</f>
+        <v>11000111</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b1010 : data = 16'b11000111;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <f t="shared" si="0"/>
         <v>1.375</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <f t="shared" si="1"/>
         <v>0.79818677773962121</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="D61" t="str">
+        <f>(DEC2BIN(B61*2^3)) &amp;"00000"</f>
+        <v>101100000</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="2"/>
+        <v>1011</v>
+      </c>
+      <c r="F61" t="str">
+        <f>DEC2BIN(ROUND(C61*2^8,0))</f>
+        <v>11001100</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b1011 : data = 16'b11001100;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <f t="shared" si="1"/>
         <v>0.81757447619364365</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="D62" t="str">
+        <f>(DEC2BIN(B62*2^3)) &amp;"00000"</f>
+        <v>110000000</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="F62" t="str">
+        <f>DEC2BIN(ROUND(C62*2^8,0))</f>
+        <v>11010001</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b1100 : data = 16'b11010001;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <f t="shared" si="0"/>
         <v>1.625</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <f t="shared" si="1"/>
         <v>0.83548353710343692</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="D63" t="str">
+        <f>(DEC2BIN(B63*2^3)) &amp;"00000"</f>
+        <v>110100000</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="2"/>
+        <v>1101</v>
+      </c>
+      <c r="F63" t="str">
+        <f>DEC2BIN(ROUND(C63*2^8,0))</f>
+        <v>11010110</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b1101 : data = 16'b11010110;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <f t="shared" si="0"/>
         <v>1.75</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <f t="shared" si="1"/>
         <v>0.85195280196831058</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="D64" t="str">
+        <f>(DEC2BIN(B64*2^3)) &amp;"00000"</f>
+        <v>111000000</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="2"/>
+        <v>1110</v>
+      </c>
+      <c r="F64" t="str">
+        <f>DEC2BIN(ROUND(C64*2^8,0))</f>
+        <v>11011010</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b1110 : data = 16'b11011010;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <f t="shared" si="0"/>
         <v>1.875</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <f t="shared" si="1"/>
         <v>0.86703575980217062</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="D65" t="str">
+        <f>(DEC2BIN(B65*2^3)) &amp;"00000"</f>
+        <v>111100000</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="2"/>
+        <v>1111</v>
+      </c>
+      <c r="F65" t="str">
+        <f>DEC2BIN(ROUND(C65*2^8,0))</f>
+        <v>11011110</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b1111 : data = 16'b11011110;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <f t="shared" si="1"/>
         <v>0.88079707797788231</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="D66" t="str">
+        <f>(DEC2BIN(B66*2^3)) &amp;"00000"</f>
+        <v>1000000000</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="F66" t="str">
+        <f>DEC2BIN(ROUND(C66*2^8,0))</f>
+        <v>11100001</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b10000 : data = 16'b11100001;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B66">
-        <f t="shared" ref="B66:B97" si="2">-6+(A66-1)*0.125</f>
+      <c r="B67">
+        <f t="shared" ref="B67:B98" si="4">-6+(A67-1)*0.125</f>
         <v>2.125</v>
       </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C97" si="3">1/(1+EXP(-B66))</f>
+      <c r="C67">
+        <f t="shared" ref="C67:C98" si="5">1/(1+EXP(-B67))</f>
         <v>0.89330940605434872</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="D67" t="str">
+        <f>(DEC2BIN(B67*2^3)) &amp;"00000"</f>
+        <v>1000100000</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E98" si="6">(DEC2BIN(B67*2^3))</f>
+        <v>10001</v>
+      </c>
+      <c r="F67" t="str">
+        <f>DEC2BIN(ROUND(C67*2^8,0))</f>
+        <v>11100101</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b10001 : data = 16'b11100101;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="2"/>
+      <c r="B68">
+        <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="3"/>
+      <c r="C68">
+        <f t="shared" si="5"/>
         <v>0.90465053510089055</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="D68" t="str">
+        <f>(DEC2BIN(B68*2^3)) &amp;"00000"</f>
+        <v>1001000000</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="6"/>
+        <v>10010</v>
+      </c>
+      <c r="F68" t="str">
+        <f>DEC2BIN(ROUND(C68*2^8,0))</f>
+        <v>11101000</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b10010 : data = 16'b11101000;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="2"/>
+      <c r="B69">
+        <f t="shared" si="4"/>
         <v>2.375</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="3"/>
+      <c r="C69">
+        <f t="shared" si="5"/>
         <v>0.91490095499297974</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="D69" t="str">
+        <f>(DEC2BIN(B69*2^3)) &amp;"00000"</f>
+        <v>1001100000</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="6"/>
+        <v>10011</v>
+      </c>
+      <c r="F69" t="str">
+        <f>DEC2BIN(ROUND(C69*2^8,0))</f>
+        <v>11101010</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b10011 : data = 16'b11101010;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="2"/>
+      <c r="B70">
+        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="3"/>
+      <c r="C70">
+        <f t="shared" si="5"/>
         <v>0.92414181997875655</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="D70" t="str">
+        <f>(DEC2BIN(B70*2^3)) &amp;"00000"</f>
+        <v>1010000000</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="6"/>
+        <v>10100</v>
+      </c>
+      <c r="F70" t="str">
+        <f>DEC2BIN(ROUND(C70*2^8,0))</f>
+        <v>11101101</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b10100 : data = 16'b11101101;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="2"/>
+      <c r="B71">
+        <f t="shared" si="4"/>
         <v>2.625</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="3"/>
+      <c r="C71">
+        <f t="shared" si="5"/>
         <v>0.93245330886037092</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="D71" t="str">
+        <f>(DEC2BIN(B71*2^3)) &amp;"00000"</f>
+        <v>1010100000</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="6"/>
+        <v>10101</v>
+      </c>
+      <c r="F71" t="str">
+        <f>DEC2BIN(ROUND(C71*2^8,0))</f>
+        <v>11101111</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b10101 : data = 16'b11101111;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="2"/>
+      <c r="B72">
+        <f t="shared" si="4"/>
         <v>2.75</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
+      <c r="C72">
+        <f t="shared" si="5"/>
         <v>0.93991334982599239</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="D72" t="str">
+        <f>(DEC2BIN(B72*2^3)) &amp;"00000"</f>
+        <v>1011000000</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="6"/>
+        <v>10110</v>
+      </c>
+      <c r="F72" t="str">
+        <f>DEC2BIN(ROUND(C72*2^8,0))</f>
+        <v>11110001</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b10110 : data = 16'b11110001;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="2"/>
+      <c r="B73">
+        <f t="shared" si="4"/>
         <v>2.875</v>
       </c>
-      <c r="C72">
-        <f t="shared" si="3"/>
+      <c r="C73">
+        <f t="shared" si="5"/>
         <v>0.94659667020017568</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="D73" t="str">
+        <f>(DEC2BIN(B73*2^3)) &amp;"00000"</f>
+        <v>1011100000</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="6"/>
+        <v>10111</v>
+      </c>
+      <c r="F73" t="str">
+        <f>DEC2BIN(ROUND(C73*2^8,0))</f>
+        <v>11110010</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b10111 : data = 16'b11110010;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B73">
-        <f t="shared" si="2"/>
+      <c r="B74">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="C73">
-        <f t="shared" si="3"/>
+      <c r="C74">
+        <f t="shared" si="5"/>
         <v>0.95257412682243336</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="D74" t="str">
+        <f>(DEC2BIN(B74*2^3)) &amp;"00000"</f>
+        <v>1100000000</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="6"/>
+        <v>11000</v>
+      </c>
+      <c r="F74" t="str">
+        <f>DEC2BIN(ROUND(C74*2^8,0))</f>
+        <v>11110100</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b11000 : data = 16'b11110100;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B74">
-        <f t="shared" si="2"/>
+      <c r="B75">
+        <f t="shared" si="4"/>
         <v>3.125</v>
       </c>
-      <c r="C74">
-        <f t="shared" si="3"/>
+      <c r="C75">
+        <f t="shared" si="5"/>
         <v>0.95791227208438112</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="D75" t="str">
+        <f>(DEC2BIN(B75*2^3)) &amp;"00000"</f>
+        <v>1100100000</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="6"/>
+        <v>11001</v>
+      </c>
+      <c r="F75" t="str">
+        <f>DEC2BIN(ROUND(C75*2^8,0))</f>
+        <v>11110101</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b11001 : data = 16'b11110101;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B75">
-        <f t="shared" si="2"/>
+      <c r="B76">
+        <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="C75">
-        <f t="shared" si="3"/>
+      <c r="C76">
+        <f t="shared" si="5"/>
         <v>0.96267311265587063</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="D76" t="str">
+        <f>(DEC2BIN(B76*2^3)) &amp;"00000"</f>
+        <v>1101000000</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="6"/>
+        <v>11010</v>
+      </c>
+      <c r="F76" t="str">
+        <f>DEC2BIN(ROUND(C76*2^8,0))</f>
+        <v>11110110</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b11010 : data = 16'b11110110;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B76">
-        <f t="shared" si="2"/>
+      <c r="B77">
+        <f t="shared" si="4"/>
         <v>3.375</v>
       </c>
-      <c r="C76">
-        <f t="shared" si="3"/>
+      <c r="C77">
+        <f t="shared" si="5"/>
         <v>0.9669140216112958</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="D77" t="str">
+        <f>(DEC2BIN(B77*2^3)) &amp;"00000"</f>
+        <v>1101100000</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="6"/>
+        <v>11011</v>
+      </c>
+      <c r="F77" t="str">
+        <f>DEC2BIN(ROUND(C77*2^8,0))</f>
+        <v>11111000</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b11011 : data = 16'b11111000;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="2"/>
+      <c r="B78">
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="C77">
-        <f t="shared" si="3"/>
+      <c r="C78">
+        <f t="shared" si="5"/>
         <v>0.97068776924864364</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="D78" t="str">
+        <f>(DEC2BIN(B78*2^3)) &amp;"00000"</f>
+        <v>1110000000</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="6"/>
+        <v>11100</v>
+      </c>
+      <c r="F78" t="str">
+        <f>DEC2BIN(ROUND(C78*2^8,0))</f>
+        <v>11111000</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b11100 : data = 16'b11111000;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B78">
-        <f t="shared" si="2"/>
+      <c r="B79">
+        <f t="shared" si="4"/>
         <v>3.625</v>
       </c>
-      <c r="C78">
-        <f t="shared" si="3"/>
+      <c r="C79">
+        <f t="shared" si="5"/>
         <v>0.9740426428022031</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="D79" t="str">
+        <f>(DEC2BIN(B79*2^3)) &amp;"00000"</f>
+        <v>1110100000</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="6"/>
+        <v>11101</v>
+      </c>
+      <c r="F79" t="str">
+        <f>DEC2BIN(ROUND(C79*2^8,0))</f>
+        <v>11111001</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b11101 : data = 16'b11111001;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B79">
-        <f t="shared" si="2"/>
+      <c r="B80">
+        <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
-      <c r="C79">
-        <f t="shared" si="3"/>
+      <c r="C80">
+        <f t="shared" si="5"/>
         <v>0.97702263008997436</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="D80" t="str">
+        <f>(DEC2BIN(B80*2^3)) &amp;"00000"</f>
+        <v>1111000000</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="6"/>
+        <v>11110</v>
+      </c>
+      <c r="F80" t="str">
+        <f>DEC2BIN(ROUND(C80*2^8,0))</f>
+        <v>11111010</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b11110 : data = 16'b11111010;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B80">
-        <f t="shared" si="2"/>
+      <c r="B81">
+        <f t="shared" si="4"/>
         <v>3.875</v>
       </c>
-      <c r="C80">
-        <f t="shared" si="3"/>
+      <c r="C81">
+        <f t="shared" si="5"/>
         <v>0.97966764665734118</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="D81" t="str">
+        <f>(DEC2BIN(B81*2^3)) &amp;"00000"</f>
+        <v>1111100000</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="6"/>
+        <v>11111</v>
+      </c>
+      <c r="F81" t="str">
+        <f>DEC2BIN(ROUND(C81*2^8,0))</f>
+        <v>11111011</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b11111 : data = 16'b11111011;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="2"/>
+      <c r="B82">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C81">
-        <f t="shared" si="3"/>
+      <c r="C82">
+        <f t="shared" si="5"/>
         <v>0.98201379003790845</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="D82" t="str">
+        <f>(DEC2BIN(B82*2^3)) &amp;"00000"</f>
+        <v>10000000000</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="F82" t="str">
+        <f>DEC2BIN(ROUND(C82*2^8,0))</f>
+        <v>11111011</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b100000 : data = 16'b11111011;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B82">
-        <f t="shared" si="2"/>
+      <c r="B83">
+        <f t="shared" si="4"/>
         <v>4.125</v>
       </c>
-      <c r="C82">
-        <f t="shared" si="3"/>
+      <c r="C83">
+        <f t="shared" si="5"/>
         <v>0.98409360828818526</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="D83" t="str">
+        <f>(DEC2BIN(B83*2^3)) &amp;"00000"</f>
+        <v>10000100000</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="6"/>
+        <v>100001</v>
+      </c>
+      <c r="F83" t="str">
+        <f>DEC2BIN(ROUND(C83*2^8,0))</f>
+        <v>11111100</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b100001 : data = 16'b11111100;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B83">
-        <f t="shared" si="2"/>
+      <c r="B84">
+        <f t="shared" si="4"/>
         <v>4.25</v>
       </c>
-      <c r="C83">
-        <f t="shared" si="3"/>
+      <c r="C84">
+        <f t="shared" si="5"/>
         <v>0.9859363729567544</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="D84" t="str">
+        <f>(DEC2BIN(B84*2^3)) &amp;"00000"</f>
+        <v>10001000000</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="6"/>
+        <v>100010</v>
+      </c>
+      <c r="F84" t="str">
+        <f>DEC2BIN(ROUND(C84*2^8,0))</f>
+        <v>11111100</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b100010 : data = 16'b11111100;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B84">
-        <f t="shared" si="2"/>
+      <c r="B85">
+        <f t="shared" si="4"/>
         <v>4.375</v>
       </c>
-      <c r="C84">
-        <f t="shared" si="3"/>
+      <c r="C85">
+        <f t="shared" si="5"/>
         <v>0.98756834914681413</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="D85" t="str">
+        <f>(DEC2BIN(B85*2^3)) &amp;"00000"</f>
+        <v>10001100000</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="6"/>
+        <v>100011</v>
+      </c>
+      <c r="F85" t="str">
+        <f>DEC2BIN(ROUND(C85*2^8,0))</f>
+        <v>11111101</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b100011 : data = 16'b11111101;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B85">
-        <f t="shared" si="2"/>
+      <c r="B86">
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="C85">
-        <f t="shared" si="3"/>
+      <c r="C86">
+        <f t="shared" si="5"/>
         <v>0.98901305736940681</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="D86" t="str">
+        <f>(DEC2BIN(B86*2^3)) &amp;"00000"</f>
+        <v>10010000000</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="6"/>
+        <v>100100</v>
+      </c>
+      <c r="F86" t="str">
+        <f>DEC2BIN(ROUND(C86*2^8,0))</f>
+        <v>11111101</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b100100 : data = 16'b11111101;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B86">
-        <f t="shared" si="2"/>
+      <c r="B87">
+        <f t="shared" si="4"/>
         <v>4.625</v>
       </c>
-      <c r="C86">
-        <f t="shared" si="3"/>
+      <c r="C87">
+        <f t="shared" si="5"/>
         <v>0.9902915235185259</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="D87" t="str">
+        <f>(DEC2BIN(B87*2^3)) &amp;"00000"</f>
+        <v>10010100000</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="6"/>
+        <v>100101</v>
+      </c>
+      <c r="F87" t="str">
+        <f>DEC2BIN(ROUND(C87*2^8,0))</f>
+        <v>11111110</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b100101 : data = 16'b11111110;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B87">
-        <f t="shared" si="2"/>
+      <c r="B88">
+        <f t="shared" si="4"/>
         <v>4.75</v>
       </c>
-      <c r="C87">
-        <f t="shared" si="3"/>
+      <c r="C88">
+        <f t="shared" si="5"/>
         <v>0.99142251458628805</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="D88" t="str">
+        <f>(DEC2BIN(B88*2^3)) &amp;"00000"</f>
+        <v>10011000000</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="6"/>
+        <v>100110</v>
+      </c>
+      <c r="F88" t="str">
+        <f>DEC2BIN(ROUND(C88*2^8,0))</f>
+        <v>11111110</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b100110 : data = 16'b11111110;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B88">
-        <f t="shared" si="2"/>
+      <c r="B89">
+        <f t="shared" si="4"/>
         <v>4.875</v>
       </c>
-      <c r="C88">
-        <f t="shared" si="3"/>
+      <c r="C89">
+        <f t="shared" si="5"/>
         <v>0.99242275873213925</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="D89" t="str">
+        <f>(DEC2BIN(B89*2^3)) &amp;"00000"</f>
+        <v>10011100000</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="6"/>
+        <v>100111</v>
+      </c>
+      <c r="F89" t="str">
+        <f>DEC2BIN(ROUND(C89*2^8,0))</f>
+        <v>11111110</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b100111 : data = 16'b11111110;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B89">
-        <f t="shared" si="2"/>
+      <c r="B90">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C89">
-        <f t="shared" si="3"/>
+      <c r="C90">
+        <f t="shared" si="5"/>
         <v>0.99330714907571527</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="D90" t="str">
+        <f>(DEC2BIN(B90*2^3)) &amp;"00000"</f>
+        <v>10100000000</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="6"/>
+        <v>101000</v>
+      </c>
+      <c r="F90" t="str">
+        <f>DEC2BIN(ROUND(C90*2^8,0))</f>
+        <v>11111110</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b101000 : data = 16'b11111110;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B90">
-        <f t="shared" si="2"/>
+      <c r="B91">
+        <f t="shared" si="4"/>
         <v>5.125</v>
       </c>
-      <c r="C90">
-        <f t="shared" si="3"/>
+      <c r="C91">
+        <f t="shared" si="5"/>
         <v>0.99408893114375618</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="D91" t="str">
+        <f>(DEC2BIN(B91*2^3)) &amp;"00000"</f>
+        <v>10100100000</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="6"/>
+        <v>101001</v>
+      </c>
+      <c r="F91" t="str">
+        <f>DEC2BIN(ROUND(C91*2^8,0))</f>
+        <v>11111110</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b101001 : data = 16'b11111110;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B91">
-        <f t="shared" si="2"/>
+      <c r="B92">
+        <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
-      <c r="C91">
-        <f t="shared" si="3"/>
+      <c r="C92">
+        <f t="shared" si="5"/>
         <v>0.99477987430644166</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="D92" t="str">
+        <f>(DEC2BIN(B92*2^3)) &amp;"00000"</f>
+        <v>10101000000</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="6"/>
+        <v>101010</v>
+      </c>
+      <c r="F92" t="str">
+        <f>DEC2BIN(ROUND(C92*2^8,0))</f>
+        <v>11111111</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b101010 : data = 16'b11111111;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B92">
-        <f t="shared" si="2"/>
+      <c r="B93">
+        <f t="shared" si="4"/>
         <v>5.375</v>
       </c>
-      <c r="C92">
-        <f t="shared" si="3"/>
+      <c r="C93">
+        <f t="shared" si="5"/>
         <v>0.99539042782062592</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="D93" t="str">
+        <f>(DEC2BIN(B93*2^3)) &amp;"00000"</f>
+        <v>10101100000</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="6"/>
+        <v>101011</v>
+      </c>
+      <c r="F93" t="str">
+        <f>DEC2BIN(ROUND(C93*2^8,0))</f>
+        <v>11111111</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b101011 : data = 16'b11111111;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B93">
-        <f t="shared" si="2"/>
+      <c r="B94">
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
-      <c r="C93">
-        <f t="shared" si="3"/>
+      <c r="C94">
+        <f t="shared" si="5"/>
         <v>0.99592986228410396</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="D94" t="str">
+        <f>(DEC2BIN(B94*2^3)) &amp;"00000"</f>
+        <v>10110000000</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="6"/>
+        <v>101100</v>
+      </c>
+      <c r="F94" t="str">
+        <f>DEC2BIN(ROUND(C94*2^8,0))</f>
+        <v>11111111</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b101100 : data = 16'b11111111;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B94">
-        <f t="shared" si="2"/>
+      <c r="B95">
+        <f t="shared" si="4"/>
         <v>5.625</v>
       </c>
-      <c r="C94">
-        <f t="shared" si="3"/>
+      <c r="C95">
+        <f t="shared" si="5"/>
         <v>0.99640639741857984</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="D95" t="str">
+        <f>(DEC2BIN(B95*2^3)) &amp;"00000"</f>
+        <v>10110100000</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="6"/>
+        <v>101101</v>
+      </c>
+      <c r="F95" t="str">
+        <f>DEC2BIN(ROUND(C95*2^8,0))</f>
+        <v>11111111</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b101101 : data = 16'b11111111;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B95">
-        <f t="shared" si="2"/>
+      <c r="B96">
+        <f t="shared" si="4"/>
         <v>5.75</v>
       </c>
-      <c r="C95">
-        <f t="shared" si="3"/>
+      <c r="C96">
+        <f t="shared" si="5"/>
         <v>0.99682731715751483</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="D96" t="str">
+        <f>(DEC2BIN(B96*2^3)) &amp;"00000"</f>
+        <v>10111000000</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="6"/>
+        <v>101110</v>
+      </c>
+      <c r="F96" t="str">
+        <f>DEC2BIN(ROUND(C96*2^8,0))</f>
+        <v>11111111</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b101110 : data = 16'b11111111;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B96">
-        <f t="shared" si="2"/>
+      <c r="B97">
+        <f t="shared" si="4"/>
         <v>5.875</v>
       </c>
-      <c r="C96">
-        <f t="shared" si="3"/>
+      <c r="C97">
+        <f t="shared" si="5"/>
         <v>0.99719907303287891</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="D97" t="str">
+        <f>(DEC2BIN(B97*2^3)) &amp;"00000"</f>
+        <v>10111100000</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="6"/>
+        <v>101111</v>
+      </c>
+      <c r="F97" t="str">
+        <f>DEC2BIN(ROUND(C97*2^8,0))</f>
+        <v>11111111</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b101111 : data = 16'b11111111;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B97">
-        <f t="shared" si="2"/>
+      <c r="B98">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C97">
-        <f t="shared" si="3"/>
+      <c r="C98">
+        <f t="shared" si="5"/>
         <v>0.99752737684336534</v>
+      </c>
+      <c r="D98" t="str">
+        <f>(DEC2BIN(B98*2^3)) &amp;"00000"</f>
+        <v>11000000000</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="6"/>
+        <v>110000</v>
+      </c>
+      <c r="F98" t="str">
+        <f>DEC2BIN(ROUND(C98*2^8,0))</f>
+        <v>11111111</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="3"/>
+        <v>6'b110000 : data = 16'b11111111;</v>
       </c>
     </row>
   </sheetData>

--- a/Sigmoid.xlsx
+++ b/Sigmoid.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18555" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Result" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>Input</t>
   </si>
@@ -59,6 +60,42 @@
   </si>
   <si>
     <t>Rounding</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>MATLAB</t>
+  </si>
+  <si>
+    <t>Image 3</t>
+  </si>
+  <si>
+    <t>Image 4</t>
+  </si>
+  <si>
+    <t>Image 5</t>
+  </si>
+  <si>
+    <t>Image 6</t>
+  </si>
+  <si>
+    <t>Image 7</t>
+  </si>
+  <si>
+    <t>Image 8</t>
+  </si>
+  <si>
+    <t>Image 9</t>
+  </si>
+  <si>
+    <t>Image 10</t>
+  </si>
+  <si>
+    <t>Same step size</t>
   </si>
 </sst>
 </file>
@@ -163,7 +200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6824,8 +6860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12842,4 +12878,3172 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>111</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C11" si="0">BIN2DEC(B2)/2^8</f>
+        <v>2.734375E-2</v>
+      </c>
+      <c r="D2">
+        <f>ABS(C2-J2)/J2</f>
+        <v>7.7389072046654114E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>110</v>
+      </c>
+      <c r="G2">
+        <f>BIN2DEC(F2)/2^8</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="H2">
+        <f>ABS(G2-J2)/J2</f>
+        <v>7.6523652531439321E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.53796429808376E-2</v>
+      </c>
+      <c r="L2">
+        <v>110</v>
+      </c>
+      <c r="M2">
+        <f>BIN2DEC(L2)/2^8</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="N2">
+        <f>ABS(M2-J2)/J2</f>
+        <v>7.6523652531439321E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>ABS(C3-J3)/J3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="1">BIN2DEC(F3)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="2">ABS(G3-J3)/J3</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1.6547488167883501E-4</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="3">BIN2DEC(L3)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N11" si="4">ABS(M3-J3)/J3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>ABS(C4-J4)/J4</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.78505908731523377</v>
+      </c>
+      <c r="J4">
+        <v>2.1883029126364001E-3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>0.78505908731523377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="D5">
+        <f>ABS(C5-J5)/J5</f>
+        <v>5.2566068185152852E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>101</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>5.2566068185152852E-2</v>
+      </c>
+      <c r="J5">
+        <v>2.06148939193967E-2</v>
+      </c>
+      <c r="L5">
+        <v>101</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>5.2566068185152852E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>10011</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="D6">
+        <f>ABS(C6-J6)/J6</f>
+        <v>2.2109995039432544E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10011</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>2.2109995039432544E-2</v>
+      </c>
+      <c r="J6">
+        <v>7.2613270939725694E-2</v>
+      </c>
+      <c r="L6">
+        <v>10010</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>3.1685267857379698E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>11101011</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.91796875</v>
+      </c>
+      <c r="D7">
+        <f>ABS(C7-J7)/J7</f>
+        <v>8.6444358835404689E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>11101101</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.92578125</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>2.0736725276209012E-4</v>
+      </c>
+      <c r="J7">
+        <v>0.92597326653241196</v>
+      </c>
+      <c r="L7">
+        <v>11101110</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>0.9296875</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>4.0111670626270992E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>ABS(C8-J8)/J8</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1.96281362508384E-3</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1010110</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.3359375</v>
+      </c>
+      <c r="D9">
+        <f>ABS(C9-J9)/J9</f>
+        <v>1.6449265243016573E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1011011</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.35546875</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>7.5545152757145448E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.33050100136545701</v>
+      </c>
+      <c r="L9">
+        <v>1010110</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>0.3359375</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>1.6449265243016573E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>ABS(C10-J10)/J10</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1.5945097558885801E-3</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1110000</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.4375</v>
+      </c>
+      <c r="D11">
+        <f>ABS(C11-J11)/J11</f>
+        <v>2.953312078027823E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1101101</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.42578125</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1.9563407593779203E-3</v>
+      </c>
+      <c r="J11">
+        <v>0.42494990318370801</v>
+      </c>
+      <c r="L11">
+        <v>1110000</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>0.4375</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>2.953312078027823E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(D2:D11)</f>
+        <v>0.42066919571780748</v>
+      </c>
+      <c r="H13">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.40139676638405442</v>
+      </c>
+      <c r="N13">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.39958276289751271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C26" si="5">BIN2DEC(B17)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>ABS(C17-J17)/J17</f>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>BIN2DEC(F17)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>ABS(G17-J17)/J17</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1.1689168186684101E-3</v>
+      </c>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>ABS(C18-J18)/J18</f>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G26" si="6">BIN2DEC(F18)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H26" si="7">ABS(G18-J18)/J18</f>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1.0308840306323299E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>ABS(C19-J19)/J19</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1.1570122514563499E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D20">
+        <f>ABS(C20-J20)/J20</f>
+        <v>0.18143739317863797</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>0.18143739317863797</v>
+      </c>
+      <c r="J20">
+        <v>6.6127075756258202E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D21">
+        <f>ABS(C21-J21)/J21</f>
+        <v>8.9330508652744042E-2</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>8.9330508652744042E-2</v>
+      </c>
+      <c r="J21">
+        <v>7.1718362222887699E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>11001010</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="5"/>
+        <v>0.7890625</v>
+      </c>
+      <c r="D22">
+        <f>ABS(C22-J22)/J22</f>
+        <v>1.849752278274416E-2</v>
+      </c>
+      <c r="F22">
+        <v>11010001</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>0.81640625</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>1.5514939299041935E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.80393327405259396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>ABS(C23-J23)/J23</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6.7797406245861307E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>10111000</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>0.71875</v>
+      </c>
+      <c r="D24">
+        <f>ABS(C24-J24)/J24</f>
+        <v>9.7284898138036077E-3</v>
+      </c>
+      <c r="F24">
+        <v>11000000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>3.3326793237770151E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.72581104536154595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="5"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D25">
+        <f>ABS(C25-J25)/J25</f>
+        <v>2.1819671234743074E-2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>2.1819671234743074E-2</v>
+      </c>
+      <c r="J25">
+        <v>3.8228369544694501E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>11101010</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>0.9140625</v>
+      </c>
+      <c r="D26">
+        <f>ABS(C26-J26)/J26</f>
+        <v>1.1695884970534587E-2</v>
+      </c>
+      <c r="F26">
+        <v>11101101</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>0.92578125</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>9.7468060676625162E-4</v>
+      </c>
+      <c r="J26">
+        <v>0.92487978760742895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <f>AVERAGE(D17:D26)</f>
+        <v>0.43325094706332068</v>
+      </c>
+      <c r="H28">
+        <f>AVERAGE(H17:H26)</f>
+        <v>0.4342403986209703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C40" si="8">BIN2DEC(B31)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D31">
+        <f>ABS(C31-J31)/J31</f>
+        <v>0.1164917384758974</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f>BIN2DEC(F31)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H31">
+        <f>ABS(G31-J31)/J31</f>
+        <v>0.1164917384758974</v>
+      </c>
+      <c r="J31">
+        <v>4.4212942539569398E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="8"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D32">
+        <f>ABS(C32-J32)/J32</f>
+        <v>0.45526198698648856</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:G40" si="9">BIN2DEC(F32)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:H40" si="10">ABS(G32-J32)/J32</f>
+        <v>0.45526198698648856</v>
+      </c>
+      <c r="J32">
+        <v>2.68422458288005E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>ABS(C33-J33)/J33</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1.56724363196359E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1011</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="8"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="D34">
+        <f>ABS(C34-J34)/J34</f>
+        <v>1.0985696912559866E-2</v>
+      </c>
+      <c r="F34">
+        <v>1011</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>1.0985696912559866E-2</v>
+      </c>
+      <c r="J34">
+        <v>4.3446034972257699E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="8"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D35">
+        <f>ABS(C35-J35)/J35</f>
+        <v>0.21187768004229962</v>
+      </c>
+      <c r="F35">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="10"/>
+        <v>0.18218347993655057</v>
+      </c>
+      <c r="J35">
+        <v>9.9128013534996798E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>10110101</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="8"/>
+        <v>0.70703125</v>
+      </c>
+      <c r="D36">
+        <f>ABS(C36-J36)/J36</f>
+        <v>2.2913241681488772E-3</v>
+      </c>
+      <c r="F36">
+        <v>10110110</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="9"/>
+        <v>0.7109375</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="10"/>
+        <v>7.8288452961496995E-3</v>
+      </c>
+      <c r="J36">
+        <v>0.70541491575495796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>ABS(C37-J37)/J37</f>
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2.8345914075777302E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1100001</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="8"/>
+        <v>0.37890625</v>
+      </c>
+      <c r="D38">
+        <f>ABS(C38-J38)/J38</f>
+        <v>3.0339124136059321E-4</v>
+      </c>
+      <c r="F38">
+        <v>1100111</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>0.40234375</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="10"/>
+        <v>6.153351239319442E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.37902124172502899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D39">
+        <f>ABS(C39-J39)/J39</f>
+        <v>0.57774618034486502</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="10"/>
+        <v>0.57774618034486502</v>
+      </c>
+      <c r="J39">
+        <v>2.4758418360716098E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>10001000</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>0.53125</v>
+      </c>
+      <c r="D40">
+        <f>ABS(C40-J40)/J40</f>
+        <v>3.5094936908429519E-2</v>
+      </c>
+      <c r="F40">
+        <v>10010011</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>0.57421875</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="10"/>
+        <v>4.2948854959271032E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.55057230013683101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <f>AVERAGE(D31:D40)</f>
+        <v>0.34100529350800496</v>
+      </c>
+      <c r="H42">
+        <f>AVERAGE(H31:H40)</f>
+        <v>0.34549802953049763</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:C54" si="11">BIN2DEC(B45)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>ABS(C45-J45)/J45</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>BIN2DEC(F45)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>ABS(G45-J45)/J45</f>
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1.7657498373193201E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>ABS(C46-J46)/J46</f>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G54" si="12">BIN2DEC(F46)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46:H54" si="13">ABS(G46-J46)/J46</f>
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.6505774148872398E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>ABS(C47-J47)/J47</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>7.9958604528867496E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1100</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="11"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="D48">
+        <f>ABS(C48-J48)/J48</f>
+        <v>7.6477162149237637E-2</v>
+      </c>
+      <c r="F48">
+        <v>1011</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="12"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="13"/>
+        <v>1.3229268029865505E-2</v>
+      </c>
+      <c r="J48">
+        <v>4.3544816042740603E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="11"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="D49">
+        <f>ABS(C49-J49)/J49</f>
+        <v>3.5973706488210896E-2</v>
+      </c>
+      <c r="F49">
+        <v>101</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="12"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="13"/>
+        <v>3.5973706488210896E-2</v>
+      </c>
+      <c r="J49">
+        <v>2.02600801777417E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1111</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="11"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="D50">
+        <f>ABS(C50-J50)/J50</f>
+        <v>5.5673858093015824E-2</v>
+      </c>
+      <c r="F50">
+        <v>1101</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="12"/>
+        <v>5.078125E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="13"/>
+        <v>8.5082656319386288E-2</v>
+      </c>
+      <c r="J50">
+        <v>5.5503647789331999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f>ABS(C51-J51)/J51</f>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1.5098476909498699E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>100110</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="11"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="D52">
+        <f>ABS(C52-J52)/J52</f>
+        <v>5.433822513722239E-2</v>
+      </c>
+      <c r="F52">
+        <v>100100</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="12"/>
+        <v>0.140625</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="13"/>
+        <v>1.1532603963156302E-3</v>
+      </c>
+      <c r="J52">
+        <v>0.14078736449177001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="11"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D53">
+        <f>ABS(C53-J53)/J53</f>
+        <v>0.19123249840549114</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="12"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="13"/>
+        <v>0.19123249840549114</v>
+      </c>
+      <c r="J53">
+        <v>6.5583334995119097E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>10011</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="11"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="D54">
+        <f>ABS(C54-J54)/J54</f>
+        <v>3.6243801673866934E-2</v>
+      </c>
+      <c r="F54">
+        <v>10011</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="12"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="13"/>
+        <v>3.6243801673866934E-2</v>
+      </c>
+      <c r="J54">
+        <v>7.1622865082630993E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56">
+        <f>AVERAGE(D45:D54)</f>
+        <v>0.44499392519470449</v>
+      </c>
+      <c r="H56">
+        <f>AVERAGE(H45:H54)</f>
+        <v>0.43629151913131359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ref="C60:C69" si="14">BIN2DEC(B60)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D60">
+        <f>ABS(C60-J60)/J60</f>
+        <v>0.1652858092245289</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f>BIN2DEC(F60)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H60">
+        <f>ABS(G60-J60)/J60</f>
+        <v>0.1652858092245289</v>
+      </c>
+      <c r="J60">
+        <v>3.3521819017083201E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f>ABS(C61-J61)/J61</f>
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" ref="G61:G69" si="15">BIN2DEC(F61)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" ref="H61:H69" si="16">ABS(G61-J61)/J61</f>
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1.7948562073760101E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f>ABS(C62-J62)/J62</f>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1.2156107557669E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="14"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="D63">
+        <f>ABS(C63-J63)/J63</f>
+        <v>8.0631981551396864E-3</v>
+      </c>
+      <c r="F63">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="15"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="16"/>
+        <v>8.0631981551396864E-3</v>
+      </c>
+      <c r="J63">
+        <v>1.1625015198894801E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="14"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="D64">
+        <f>ABS(C64-J64)/J64</f>
+        <v>0.19643949695617333</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="15"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="16"/>
+        <v>0.19643949695617333</v>
+      </c>
+      <c r="J64">
+        <v>9.7946866764373197E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>10111110</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="14"/>
+        <v>0.7421875</v>
+      </c>
+      <c r="D65">
+        <f>ABS(C65-J65)/J65</f>
+        <v>3.9060107097589284E-3</v>
+      </c>
+      <c r="F65">
+        <v>11000000</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="15"/>
+        <v>0.75</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="16"/>
+        <v>6.5791891775067671E-3</v>
+      </c>
+      <c r="J65">
+        <v>0.74509786022184499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f>ABS(C66-J66)/J66</f>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1.42226346109249E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>10111000</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="14"/>
+        <v>0.71875</v>
+      </c>
+      <c r="D67">
+        <f>ABS(C67-J67)/J67</f>
+        <v>1.1215797616695004E-2</v>
+      </c>
+      <c r="F67">
+        <v>10111011</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="15"/>
+        <v>0.73046875</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="16"/>
+        <v>4.90568394390236E-3</v>
+      </c>
+      <c r="J67">
+        <v>0.72690279463159801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="14"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D68">
+        <f>ABS(C68-J68)/J68</f>
+        <v>3.0610768764278667E-3</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="15"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="16"/>
+        <v>3.0610768764278667E-3</v>
+      </c>
+      <c r="J68">
+        <v>7.8364880924923306E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1111</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="14"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="D69">
+        <f>ABS(C69-J69)/J69</f>
+        <v>5.2729586110318243E-2</v>
+      </c>
+      <c r="F69">
+        <v>10000</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="15"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="16"/>
+        <v>0.1229115585176728</v>
+      </c>
+      <c r="J69">
+        <v>5.56588802794983E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <f>AVERAGE(D60:D69)</f>
+        <v>0.3440700975649042</v>
+      </c>
+      <c r="H71">
+        <f>AVERAGE(H60:H69)</f>
+        <v>0.35072460128513516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+      <c r="J73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ref="C74:C83" si="17">BIN2DEC(B74)/2^8</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="D74">
+        <f>ABS(C74-J74)/J74</f>
+        <v>0.10863889497226388</v>
+      </c>
+      <c r="F74">
+        <v>100</v>
+      </c>
+      <c r="G74">
+        <f>BIN2DEC(F74)/2^8</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H74">
+        <f>ABS(G74-J74)/J74</f>
+        <v>0.18848147337031482</v>
+      </c>
+      <c r="J74">
+        <v>1.3147028666496899E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f>ABS(C75-J75)/J75</f>
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ref="G75:G83" si="18">BIN2DEC(F75)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ref="H75:H83" si="19">ABS(G75-J75)/J75</f>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>7.4990904459901902E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f>ABS(C76-J76)/J76</f>
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="18"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="19"/>
+        <v>0.56637440539753425</v>
+      </c>
+      <c r="J76">
+        <v>2.4938162846248899E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>110</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="17"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="D77">
+        <f>ABS(C77-J77)/J77</f>
+        <v>1.9668837447948014E-2</v>
+      </c>
+      <c r="F77">
+        <v>110</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="18"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="19"/>
+        <v>1.9668837447948014E-2</v>
+      </c>
+      <c r="J77">
+        <v>2.29854038284233E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="17"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D78">
+        <f>ABS(C78-J78)/J78</f>
+        <v>1.8713147807056109E-2</v>
+      </c>
+      <c r="F78">
+        <v>100</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="18"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="19"/>
+        <v>1.8713147807056109E-2</v>
+      </c>
+      <c r="J78">
+        <v>1.59229688699913E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>10111000</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="17"/>
+        <v>0.71875</v>
+      </c>
+      <c r="D79">
+        <f>ABS(C79-J79)/J79</f>
+        <v>9.0921393706653517E-3</v>
+      </c>
+      <c r="F79">
+        <v>10111011</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="18"/>
+        <v>0.73046875</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="19"/>
+        <v>7.0639670526390181E-3</v>
+      </c>
+      <c r="J79">
+        <v>0.72534493726138705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f>ABS(C80-J80)/J80</f>
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1.2946719933843299E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>10010000</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="17"/>
+        <v>0.5625</v>
+      </c>
+      <c r="D81">
+        <f>ABS(C81-J81)/J81</f>
+        <v>1.6219313418627167E-2</v>
+      </c>
+      <c r="F81">
+        <v>10010011</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="18"/>
+        <v>0.57421875</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="19"/>
+        <v>4.2761175518181002E-3</v>
+      </c>
+      <c r="J81">
+        <v>0.57177377811174701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f>ABS(C82-J82)/J82</f>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1.0932734885372201E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>10000100</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="17"/>
+        <v>0.515625</v>
+      </c>
+      <c r="D83">
+        <f>ABS(C83-J83)/J83</f>
+        <v>2.9207350485050285E-2</v>
+      </c>
+      <c r="F83">
+        <v>10001101</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="18"/>
+        <v>0.55078125</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="19"/>
+        <v>3.6983057436423557E-2</v>
+      </c>
+      <c r="J83">
+        <v>0.53113813774509799</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <f>AVERAGE(D74:D83)</f>
+        <v>0.42015396835016111</v>
+      </c>
+      <c r="H85">
+        <f>AVERAGE(H74:H83)</f>
+        <v>0.3841561006063734</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ref="C88:C97" si="20">BIN2DEC(B88)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f>ABS(C88-J88)/J88</f>
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f>BIN2DEC(F88)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f>ABS(G88-J88)/J88</f>
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>7.2292200002337201E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f>ABS(C89-J89)/J89</f>
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ref="G89:G97" si="21">BIN2DEC(F89)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ref="H89:H97" si="22">ABS(G89-J89)/J89</f>
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>6.7165891354028595E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f>ABS(C90-J90)/J90</f>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>5.6498385421534399E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>10010</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="20"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="D91">
+        <f>ABS(C91-J91)/J91</f>
+        <v>1.625365606773916E-2</v>
+      </c>
+      <c r="F91">
+        <v>10011</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="21"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="22"/>
+        <v>3.8398918595164221E-2</v>
+      </c>
+      <c r="J91">
+        <v>7.14742173464602E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="20"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D92">
+        <f>ABS(C92-J92)/J92</f>
+        <v>0.23015818450109138</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="21"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="22"/>
+        <v>0.23015818450109138</v>
+      </c>
+      <c r="J92">
+        <v>5.07409434166484E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>11001010</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="20"/>
+        <v>0.7890625</v>
+      </c>
+      <c r="D93">
+        <f>ABS(C93-J93)/J93</f>
+        <v>1.2942983313331349E-2</v>
+      </c>
+      <c r="F93">
+        <v>11001101</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="21"/>
+        <v>0.80078125</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="22"/>
+        <v>1.7162793107280865E-3</v>
+      </c>
+      <c r="J93">
+        <v>0.799409240459794</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f>ABS(C94-J94)/J94</f>
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1.88981992167163E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>10010000</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="20"/>
+        <v>0.5625</v>
+      </c>
+      <c r="D95">
+        <f>ABS(C95-J95)/J95</f>
+        <v>1.7363508427592045E-2</v>
+      </c>
+      <c r="F95">
+        <v>10010011</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="21"/>
+        <v>0.57421875</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="22"/>
+        <v>3.1080851468331221E-3</v>
+      </c>
+      <c r="J95">
+        <v>0.57243955910887401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1000</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="20"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="D96">
+        <f>ABS(C96-J96)/J96</f>
+        <v>6.4528801655577339E-2</v>
+      </c>
+      <c r="F96">
+        <v>1000</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="21"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="22"/>
+        <v>6.4528801655577339E-2</v>
+      </c>
+      <c r="J96">
+        <v>2.9355711138486201E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1101100</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="20"/>
+        <v>0.421875</v>
+      </c>
+      <c r="D97">
+        <f>ABS(C97-J97)/J97</f>
+        <v>4.0450779365070785E-2</v>
+      </c>
+      <c r="F97">
+        <v>1100111</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="21"/>
+        <v>0.40234375</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="22"/>
+        <v>7.7182381981269338E-3</v>
+      </c>
+      <c r="J97">
+        <v>0.40547328943080502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <f>AVERAGE(D88:D97)</f>
+        <v>0.43816979133304035</v>
+      </c>
+      <c r="H99">
+        <f>AVERAGE(H88:H97)</f>
+        <v>0.43456285074075207</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:C111" si="23">BIN2DEC(B102)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D102">
+        <f>ABS(C102-J102)/ABS(J102)</f>
+        <v>0.2335301915547382</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <f>BIN2DEC(F102)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H102">
+        <f>(ABS(G102-J102))/ABS(J102)</f>
+        <v>0.2335301915547382</v>
+      </c>
+      <c r="J102">
+        <v>3.1667242737500999E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="23"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ref="D103:D111" si="24">ABS(C103-J103)/ABS(J103)</f>
+        <v>0.11371495226576264</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103">
+        <f t="shared" ref="G103:G111" si="25">BIN2DEC(F103)/2^8</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="H103">
+        <f>(ABS(G103-J103))/ABS(J103)</f>
+        <v>0.16471378580067803</v>
+      </c>
+      <c r="J103">
+        <v>1.40296221831378E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f t="shared" ref="H103:H111" si="26">(ABS(G104-J104))/ABS(J104)</f>
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>5.0568629608188805E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>1001</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="23"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="24"/>
+        <v>1.0438030197260691E-2</v>
+      </c>
+      <c r="F105">
+        <v>1000</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="25"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="26"/>
+        <v>0.10183286204687939</v>
+      </c>
+      <c r="J105">
+        <v>3.4793078792903998E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>101</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="23"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="24"/>
+        <v>4.5893562069098642E-2</v>
+      </c>
+      <c r="F106">
+        <v>101</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="25"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="26"/>
+        <v>4.5893562069098642E-2</v>
+      </c>
+      <c r="J106">
+        <v>1.8674223370646999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>10101110</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="23"/>
+        <v>0.6796875</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="24"/>
+        <v>1.1910799608795193E-2</v>
+      </c>
+      <c r="F107">
+        <v>10110001</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="25"/>
+        <v>0.69140625</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="26"/>
+        <v>5.1252210876048905E-3</v>
+      </c>
+      <c r="J107">
+        <v>0.68788070928302603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1.19462548084268E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>1100100</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="23"/>
+        <v>0.390625</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="24"/>
+        <v>1.1615385960990137E-2</v>
+      </c>
+      <c r="F109">
+        <v>1100111</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="25"/>
+        <v>0.40234375</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="26"/>
+        <v>4.196384753981984E-2</v>
+      </c>
+      <c r="J109">
+        <v>0.38613983676110603</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="23"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="24"/>
+        <v>0.36770768471390675</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="25"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="26"/>
+        <v>0.36770768471390675</v>
+      </c>
+      <c r="J110">
+        <v>2.8560561907035702E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>10010100</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="23"/>
+        <v>0.578125</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="24"/>
+        <v>1.088965178462337E-2</v>
+      </c>
+      <c r="F111">
+        <v>10011001</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="25"/>
+        <v>0.59765625</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="26"/>
+        <v>2.2526238357788005E-2</v>
+      </c>
+      <c r="J111">
+        <v>0.58448989138885699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113">
+        <f>AVERAGE(D102:D111)</f>
+        <v>0.2805700258155176</v>
+      </c>
+      <c r="H113">
+        <f>AVERAGE(H102:H111)</f>
+        <v>0.29832933931705136</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ref="C116:C125" si="27">BIN2DEC(B116)/2^8</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D116">
+        <f>ABS(C116-J116)/ABS(J116)</f>
+        <v>9.0664774348090546E-2</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116">
+        <f>BIN2DEC(F116)/2^8</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H116">
+        <f>ABS(G116-J116)/ABS(J116)</f>
+        <v>9.0664774348090546E-2</v>
+      </c>
+      <c r="J116">
+        <v>7.16306255024113E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ref="D117:D125" si="28">ABS(C117-J117)/ABS(J117)</f>
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" ref="G117:G125" si="29">BIN2DEC(F117)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f t="shared" ref="H117:H125" si="30">ABS(G117-J117)/ABS(J117)</f>
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>4.59604882933609E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="27"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="28"/>
+        <v>0.50727768414358365</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="29"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="30"/>
+        <v>0.50727768414358365</v>
+      </c>
+      <c r="J118">
+        <v>2.59159280409534E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>1010</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="27"/>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="28"/>
+        <v>9.7402840001852078E-2</v>
+      </c>
+      <c r="F119">
+        <v>1001</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="29"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="30"/>
+        <v>1.233744399833313E-2</v>
+      </c>
+      <c r="J119">
+        <v>3.5595406332221698E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>1.35074153593117E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>10101010</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="27"/>
+        <v>0.6640625</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="28"/>
+        <v>2.9912346775298689E-2</v>
+      </c>
+      <c r="F121">
+        <v>10110001</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="29"/>
+        <v>0.69140625</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="30"/>
+        <v>1.0032438945718425E-2</v>
+      </c>
+      <c r="J121">
+        <v>0.68453865771053501</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>8.1898418428390696E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>1101100</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="27"/>
+        <v>0.421875</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="28"/>
+        <v>1.7212102066279905E-2</v>
+      </c>
+      <c r="F123">
+        <v>1101101</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="29"/>
+        <v>0.42578125</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="30"/>
+        <v>2.6630732640967682E-2</v>
+      </c>
+      <c r="J123">
+        <v>0.41473651281088603</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>3.5212403774687701E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>10000000</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="28"/>
+        <v>2.9903302488883728E-3</v>
+      </c>
+      <c r="F125">
+        <v>10000000</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="30"/>
+        <v>2.9903302488883728E-3</v>
+      </c>
+      <c r="J125">
+        <v>0.498509292583037</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127">
+        <f>AVERAGE(D116:D125)</f>
+        <v>0.47454600775839939</v>
+      </c>
+      <c r="H127">
+        <f>AVERAGE(H116:H125)</f>
+        <v>0.46499334043255819</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:C139" si="31">BIN2DEC(B130)/2^8</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="D130">
+        <f>ABS(C130-J130)/ABS(J130)</f>
+        <v>1.3883600611290759E-2</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+      <c r="G130">
+        <f>BIN2DEC(F130)/2^8</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H130">
+        <f>ABS(G130-J130)/ABS(J130)</f>
+        <v>1.3883600611290759E-2</v>
+      </c>
+      <c r="J130">
+        <v>7.9224927248375005E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D139" si="32">ABS(C131-J131)/ABS(J131)</f>
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" ref="G131:G139" si="33">BIN2DEC(F131)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <f t="shared" ref="H131:H139" si="34">ABS(G131-J131)/ABS(J131)</f>
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1.6196183983875499E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>9.2423425176403704E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>11</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="31"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="32"/>
+        <v>2.7215621094514097E-2</v>
+      </c>
+      <c r="F133">
+        <v>11</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="33"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="34"/>
+        <v>2.7215621094514097E-2</v>
+      </c>
+      <c r="J133">
+        <v>1.20466058605764E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>110</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="31"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="32"/>
+        <v>4.069213475083918E-2</v>
+      </c>
+      <c r="F134">
+        <v>110</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="33"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="34"/>
+        <v>4.069213475083918E-2</v>
+      </c>
+      <c r="J134">
+        <v>2.4431677096604001E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>1011001</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="31"/>
+        <v>0.34765625</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="32"/>
+        <v>9.3415220309065131E-3</v>
+      </c>
+      <c r="F135">
+        <v>1010101</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="33"/>
+        <v>0.33203125</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="34"/>
+        <v>3.6022141880594903E-2</v>
+      </c>
+      <c r="J135">
+        <v>0.34443866858907901</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1.9935683426640301E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>100010</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="31"/>
+        <v>0.1328125</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="32"/>
+        <v>5.7562744672885531E-2</v>
+      </c>
+      <c r="F137">
+        <v>100001</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="33"/>
+        <v>0.12890625</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="34"/>
+        <v>2.6457958064859486E-2</v>
+      </c>
+      <c r="J137">
+        <v>0.125583565295769</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>100</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="31"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="32"/>
+        <v>5.7384009102541357E-2</v>
+      </c>
+      <c r="F138">
+        <v>100</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="33"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="34"/>
+        <v>5.7384009102541357E-2</v>
+      </c>
+      <c r="J138">
+        <v>1.47770345167805E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>111</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="31"/>
+        <v>2.734375E-2</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="32"/>
+        <v>7.1835068084734346E-2</v>
+      </c>
+      <c r="F139">
+        <v>111</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="33"/>
+        <v>2.734375E-2</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="34"/>
+        <v>7.1835068084734346E-2</v>
+      </c>
+      <c r="J139">
+        <v>2.5511154480941399E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141">
+        <f>AVERAGE(D130:D139)</f>
+        <v>0.32779147003477116</v>
+      </c>
+      <c r="H141">
+        <f>AVERAGE(H130:H139)</f>
+        <v>0.32734905335893744</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Sigmoid.xlsx
+++ b/Sigmoid.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="26">
   <si>
     <t>Input</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Same step size</t>
+  </si>
+  <si>
+    <t>MATLAB_ACTUAL_DIFF</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1065,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12882,19 +12884,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U141"/>
+  <dimension ref="A1:W141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="R144" sqref="R144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -12916,8 +12926,11 @@
       <c r="L1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>111</v>
       </c>
@@ -12926,7 +12939,7 @@
         <v>2.734375E-2</v>
       </c>
       <c r="D2">
-        <f>ABS(C2-J2)/J2</f>
+        <f t="shared" ref="D2:D11" si="1">ABS(C2-J2)/J2</f>
         <v>7.7389072046654114E-2</v>
       </c>
       <c r="F2" s="2">
@@ -12954,8 +12967,36 @@
         <f>ABS(M2-J2)/J2</f>
         <v>7.6523652531439321E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>ABS(C2-M2)</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R2">
+        <f>B2</f>
+        <v>111</v>
+      </c>
+      <c r="S2">
+        <f>L2</f>
+        <v>110</v>
+      </c>
+      <c r="T2">
+        <f>C2</f>
+        <v>2.734375E-2</v>
+      </c>
+      <c r="U2">
+        <f>M2</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="V2">
+        <f>P2</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W2">
+        <f>J2</f>
+        <v>2.53796429808376E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0</v>
       </c>
@@ -12964,18 +13005,18 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <f>ABS(C3-J3)/J3</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="1">BIN2DEC(F3)/2^8</f>
+        <f t="shared" ref="G3:G11" si="2">BIN2DEC(F3)/2^8</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" si="2">ABS(G3-J3)/J3</f>
+        <f t="shared" ref="H3:H11" si="3">ABS(G3-J3)/J3</f>
         <v>1</v>
       </c>
       <c r="J3">
@@ -12985,15 +13026,43 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M11" si="3">BIN2DEC(L3)/2^8</f>
+        <f t="shared" ref="M3:M11" si="4">BIN2DEC(L3)/2^8</f>
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N11" si="4">ABS(M3-J3)/J3</f>
+        <f t="shared" ref="N3:N11" si="5">ABS(M3-J3)/J3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f t="shared" ref="P3:P11" si="6">ABS(C3-M3)</f>
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>L3</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f>M3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>P3</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>J3</f>
+        <v>1.6547488167883501E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -13002,18 +13071,18 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f>ABS(C4-J4)/J4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.90625E-3</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78505908731523377</v>
       </c>
       <c r="J4">
@@ -13023,15 +13092,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.90625E-3</v>
       </c>
       <c r="N4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78505908731523377</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R11" si="7">B4</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S11" si="8">L4</f>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T11" si="9">C4</f>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ref="U4:U11" si="10">M4</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V11" si="11">P4</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W11" si="12">J4</f>
+        <v>2.1883029126364001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>101</v>
       </c>
@@ -13040,18 +13137,18 @@
         <v>1.953125E-2</v>
       </c>
       <c r="D5">
-        <f>ABS(C5-J5)/J5</f>
+        <f t="shared" si="1"/>
         <v>5.2566068185152852E-2</v>
       </c>
       <c r="F5" s="2">
         <v>101</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.953125E-2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.2566068185152852E-2</v>
       </c>
       <c r="J5">
@@ -13061,15 +13158,43 @@
         <v>101</v>
       </c>
       <c r="M5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.953125E-2</v>
       </c>
       <c r="N5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2566068185152852E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="9"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="10"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="12"/>
+        <v>2.06148939193967E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>10011</v>
       </c>
@@ -13078,18 +13203,18 @@
         <v>7.421875E-2</v>
       </c>
       <c r="D6">
-        <f>ABS(C6-J6)/J6</f>
+        <f t="shared" si="1"/>
         <v>2.2109995039432544E-2</v>
       </c>
       <c r="F6" s="2">
         <v>10011</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.421875E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2109995039432544E-2</v>
       </c>
       <c r="J6">
@@ -13099,15 +13224,43 @@
         <v>10010</v>
       </c>
       <c r="M6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.03125E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1685267857379698E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>10011</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="8"/>
+        <v>10010</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="9"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="10"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="11"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="12"/>
+        <v>7.2613270939725694E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>11101011</v>
       </c>
@@ -13116,18 +13269,18 @@
         <v>0.91796875</v>
       </c>
       <c r="D7">
-        <f>ABS(C7-J7)/J7</f>
+        <f t="shared" si="1"/>
         <v>8.6444358835404689E-3</v>
       </c>
       <c r="F7" s="2">
         <v>11101101</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92578125</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0736725276209012E-4</v>
       </c>
       <c r="J7">
@@ -13137,15 +13290,43 @@
         <v>11101110</v>
       </c>
       <c r="M7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9296875</v>
       </c>
       <c r="N7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.0111670626270992E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="7"/>
+        <v>11101011</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="8"/>
+        <v>11101110</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>0.91796875</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="10"/>
+        <v>0.9296875</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="11"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="12"/>
+        <v>0.92597326653241196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -13154,18 +13335,18 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f>ABS(C8-J8)/J8</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J8">
@@ -13175,15 +13356,43 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="12"/>
+        <v>1.96281362508384E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1010110</v>
       </c>
@@ -13192,18 +13401,18 @@
         <v>0.3359375</v>
       </c>
       <c r="D9">
-        <f>ABS(C9-J9)/J9</f>
+        <f t="shared" si="1"/>
         <v>1.6449265243016573E-2</v>
       </c>
       <c r="F9" s="2">
         <v>1011011</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35546875</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5545152757145448E-2</v>
       </c>
       <c r="J9">
@@ -13213,15 +13422,43 @@
         <v>1010110</v>
       </c>
       <c r="M9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3359375</v>
       </c>
       <c r="N9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6449265243016573E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>1010110</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="8"/>
+        <v>1010110</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="9"/>
+        <v>0.3359375</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="10"/>
+        <v>0.3359375</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="12"/>
+        <v>0.33050100136545701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -13230,18 +13467,18 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f>ABS(C10-J10)/J10</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J10">
@@ -13251,15 +13488,43 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="12"/>
+        <v>1.5945097558885801E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1110000</v>
       </c>
@@ -13268,18 +13533,18 @@
         <v>0.4375</v>
       </c>
       <c r="D11">
-        <f>ABS(C11-J11)/J11</f>
+        <f t="shared" si="1"/>
         <v>2.953312078027823E-2</v>
       </c>
       <c r="F11" s="2">
         <v>1101101</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42578125</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.9563407593779203E-3</v>
       </c>
       <c r="J11">
@@ -13289,15 +13554,49 @@
         <v>1110000</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4375</v>
       </c>
       <c r="N11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.953312078027823E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="7"/>
+        <v>1110000</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="8"/>
+        <v>1110000</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="9"/>
+        <v>0.4375</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="10"/>
+        <v>0.4375</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="12"/>
+        <v>0.42494990318370801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f>AVERAGE(P2:P11)</f>
+        <v>2.3437499999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -13314,7 +13613,7 @@
         <v>0.39958276289751271</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -13334,16 +13633,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C26" si="5">BIN2DEC(B17)/2^8</f>
+        <f t="shared" ref="C17:C26" si="13">BIN2DEC(B17)/2^8</f>
         <v>0</v>
       </c>
       <c r="D17">
-        <f>ABS(C17-J17)/J17</f>
+        <f t="shared" ref="D17:D26" si="14">ABS(C17-J17)/J17</f>
         <v>1</v>
       </c>
       <c r="F17">
@@ -13360,252 +13659,641 @@
       <c r="J17">
         <v>1.1689168186684101E-3</v>
       </c>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>BIN2DEC(L17)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>ABS(M17-J17)/J17</f>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f>ABS(C17-M17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f>B17</f>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f>L17</f>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f>C17</f>
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <f>M17</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>P17</f>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>J17</f>
+        <v>1.1689168186684101E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D18">
-        <f>ABS(C18-J18)/J18</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" ref="G18:G26" si="6">BIN2DEC(F18)/2^8</f>
+        <f t="shared" ref="G18:G26" si="15">BIN2DEC(F18)/2^8</f>
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H26" si="7">ABS(G18-J18)/J18</f>
+        <f t="shared" ref="H18:H26" si="16">ABS(G18-J18)/J18</f>
         <v>1</v>
       </c>
       <c r="J18">
         <v>1.0308840306323299E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M26" si="17">BIN2DEC(L18)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:N26" si="18">ABS(M18-J18)/J18</f>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ref="P18:P26" si="19">ABS(C18-M18)</f>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f>B18</f>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f>L18</f>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <f>M18</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f>P18</f>
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <f>J18</f>
+        <v>1.0308840306323299E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D19">
-        <f>ABS(C19-J19)/J19</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J19">
         <v>1.1570122514563499E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R26" si="20">B19</f>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" ref="S19:S26" si="21">L19</f>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" ref="T19:T26" si="22">C19</f>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19:U26" si="23">M19</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19:V26" si="24">P19</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19:W26" si="25">J19</f>
+        <v>1.1570122514563499E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7.8125E-3</v>
       </c>
       <c r="D20">
-        <f>ABS(C20-J20)/J20</f>
+        <f t="shared" si="14"/>
         <v>0.18143739317863797</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7.8125E-3</v>
       </c>
       <c r="H20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>0.18143739317863797</v>
       </c>
       <c r="J20">
         <v>6.6127075756258202E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="17"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="18"/>
+        <v>0.18143739317863797</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="22"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="23"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="25"/>
+        <v>6.6127075756258202E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7.8125E-3</v>
       </c>
       <c r="D21">
-        <f>ABS(C21-J21)/J21</f>
+        <f t="shared" si="14"/>
         <v>8.9330508652744042E-2</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>7.8125E-3</v>
       </c>
       <c r="H21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>8.9330508652744042E-2</v>
       </c>
       <c r="J21">
         <v>7.1718362222887699E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="17"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="18"/>
+        <v>8.9330508652744042E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="22"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="23"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="25"/>
+        <v>7.1718362222887699E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11001010</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.7890625</v>
       </c>
       <c r="D22">
-        <f>ABS(C22-J22)/J22</f>
+        <f t="shared" si="14"/>
         <v>1.849752278274416E-2</v>
       </c>
       <c r="F22">
         <v>11010001</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.81640625</v>
       </c>
       <c r="H22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1.5514939299041935E-2</v>
       </c>
       <c r="J22">
         <v>0.80393327405259396</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>11001111</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="17"/>
+        <v>0.80859375</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="18"/>
+        <v>5.7970929899601939E-3</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="19"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="20"/>
+        <v>11001010</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="21"/>
+        <v>11001111</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="22"/>
+        <v>0.7890625</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="23"/>
+        <v>0.80859375</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="24"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="25"/>
+        <v>0.80393327405259396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D23">
-        <f>ABS(C23-J23)/J23</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J23" s="1">
         <v>6.7797406245861307E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="25"/>
+        <v>6.7797406245861307E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>10111000</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.71875</v>
       </c>
       <c r="D24">
-        <f>ABS(C24-J24)/J24</f>
+        <f t="shared" si="14"/>
         <v>9.7284898138036077E-3</v>
       </c>
       <c r="F24">
         <v>11000000</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.75</v>
       </c>
       <c r="H24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>3.3326793237770151E-2</v>
       </c>
       <c r="J24">
         <v>0.72581104536154595</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>10111011</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="17"/>
+        <v>0.73046875</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="18"/>
+        <v>6.417241330536551E-3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="20"/>
+        <v>10111000</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="21"/>
+        <v>10111011</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="22"/>
+        <v>0.71875</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="23"/>
+        <v>0.73046875</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="24"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="25"/>
+        <v>0.72581104536154595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>3.90625E-3</v>
       </c>
       <c r="D25">
-        <f>ABS(C25-J25)/J25</f>
+        <f t="shared" si="14"/>
         <v>2.1819671234743074E-2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>3.90625E-3</v>
       </c>
       <c r="H25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>2.1819671234743074E-2</v>
       </c>
       <c r="J25">
         <v>3.8228369544694501E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="17"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="18"/>
+        <v>2.1819671234743074E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="22"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="23"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="25"/>
+        <v>3.8228369544694501E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>11101010</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0.9140625</v>
       </c>
       <c r="D26">
-        <f>ABS(C26-J26)/J26</f>
+        <f t="shared" si="14"/>
         <v>1.1695884970534587E-2</v>
       </c>
       <c r="F26">
         <v>11101101</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>0.92578125</v>
       </c>
       <c r="H26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>9.7468060676625162E-4</v>
       </c>
       <c r="J26">
         <v>0.92487978760742895</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>11101110</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="17"/>
+        <v>0.9296875</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="18"/>
+        <v>5.198202465866531E-3</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="19"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="20"/>
+        <v>11101010</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="21"/>
+        <v>11101110</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="22"/>
+        <v>0.9140625</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="23"/>
+        <v>0.9296875</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="24"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="25"/>
+        <v>0.92487978760742895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -13617,8 +14305,12 @@
         <f>AVERAGE(H17:H26)</f>
         <v>0.4342403986209703</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <f>AVERAGE(N17:N26)</f>
+        <v>0.43100001098524887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -13638,16 +14330,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:C40" si="8">BIN2DEC(B31)/2^8</f>
+        <f t="shared" ref="C31:C40" si="26">BIN2DEC(B31)/2^8</f>
         <v>3.90625E-3</v>
       </c>
       <c r="D31">
-        <f>ABS(C31-J31)/J31</f>
+        <f t="shared" ref="D31:D40" si="27">ABS(C31-J31)/J31</f>
         <v>0.1164917384758974</v>
       </c>
       <c r="F31">
@@ -13664,251 +14356,601 @@
       <c r="J31">
         <v>4.4212942539569398E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <f>BIN2DEC(L31)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P31">
+        <f>ABS(C31-M31)</f>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f>B31</f>
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f>L31</f>
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <f>C31</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="U31">
+        <f>M31</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V31">
+        <f>P31</f>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f>J31</f>
+        <v>4.4212942539569398E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>3.90625E-3</v>
       </c>
       <c r="D32">
-        <f>ABS(C32-J32)/J32</f>
+        <f t="shared" si="27"/>
         <v>0.45526198698648856</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:G40" si="9">BIN2DEC(F32)/2^8</f>
+        <f t="shared" ref="G32:G40" si="28">BIN2DEC(F32)/2^8</f>
         <v>3.90625E-3</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32:H40" si="10">ABS(G32-J32)/J32</f>
+        <f t="shared" ref="H32:H40" si="29">ABS(G32-J32)/J32</f>
         <v>0.45526198698648856</v>
       </c>
       <c r="J32">
         <v>2.68422458288005E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:M40" si="30">BIN2DEC(L32)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P32">
+        <f t="shared" ref="P32:P40" si="31">ABS(C32-M32)</f>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f>B32</f>
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <f>L32</f>
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <f>C32</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="U32">
+        <f>M32</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V32">
+        <f>P32</f>
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f>J32</f>
+        <v>2.68422458288005E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D33">
-        <f>ABS(C33-J33)/J33</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J33">
         <v>1.56724363196359E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ref="R33:R40" si="32">B33</f>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ref="S33:S40" si="33">L33</f>
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <f t="shared" ref="T33:T40" si="34">C33</f>
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33:U40" si="35">M33</f>
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33:V40" si="36">P33</f>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33:W40" si="37">J33</f>
+        <v>1.56724363196359E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>1011</v>
       </c>
       <c r="C34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>4.296875E-2</v>
       </c>
       <c r="D34">
-        <f>ABS(C34-J34)/J34</f>
+        <f t="shared" si="27"/>
         <v>1.0985696912559866E-2</v>
       </c>
       <c r="F34">
         <v>1011</v>
       </c>
       <c r="G34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>4.296875E-2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>1.0985696912559866E-2</v>
       </c>
       <c r="J34">
         <v>4.3446034972257699E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>1011</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="30"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="32"/>
+        <v>1011</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="33"/>
+        <v>1011</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="34"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="35"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="37"/>
+        <v>4.3446034972257699E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10</v>
       </c>
       <c r="C35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>7.8125E-3</v>
       </c>
       <c r="D35">
-        <f>ABS(C35-J35)/J35</f>
+        <f t="shared" si="27"/>
         <v>0.21187768004229962</v>
       </c>
       <c r="F35">
         <v>11</v>
       </c>
       <c r="G35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>1.171875E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0.18218347993655057</v>
       </c>
       <c r="J35">
         <v>9.9128013534996798E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="30"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="34"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="35"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="37"/>
+        <v>9.9128013534996798E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>10110101</v>
       </c>
       <c r="C36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>0.70703125</v>
       </c>
       <c r="D36">
-        <f>ABS(C36-J36)/J36</f>
+        <f t="shared" si="27"/>
         <v>2.2913241681488772E-3</v>
       </c>
       <c r="F36">
         <v>10110110</v>
       </c>
       <c r="G36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0.7109375</v>
       </c>
       <c r="H36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>7.8288452961496995E-3</v>
       </c>
       <c r="J36">
         <v>0.70541491575495796</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>10110101</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="30"/>
+        <v>0.70703125</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="32"/>
+        <v>10110101</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="33"/>
+        <v>10110101</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="34"/>
+        <v>0.70703125</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="35"/>
+        <v>0.70703125</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="37"/>
+        <v>0.70541491575495796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="D37">
-        <f>ABS(C37-J37)/J37</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="J37">
         <v>2.8345914075777302E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="37"/>
+        <v>2.8345914075777302E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>1100001</v>
       </c>
       <c r="C38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>0.37890625</v>
       </c>
       <c r="D38">
-        <f>ABS(C38-J38)/J38</f>
+        <f t="shared" si="27"/>
         <v>3.0339124136059321E-4</v>
       </c>
       <c r="F38">
         <v>1100111</v>
       </c>
       <c r="G38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0.40234375</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>6.153351239319442E-2</v>
       </c>
       <c r="J38">
         <v>0.37902124172502899</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>1100001</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="30"/>
+        <v>0.37890625</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="32"/>
+        <v>1100001</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="33"/>
+        <v>1100001</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="34"/>
+        <v>0.37890625</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="35"/>
+        <v>0.37890625</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="37"/>
+        <v>0.37902124172502899</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>3.90625E-3</v>
       </c>
       <c r="D39">
-        <f>ABS(C39-J39)/J39</f>
+        <f t="shared" si="27"/>
         <v>0.57774618034486502</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>3.90625E-3</v>
       </c>
       <c r="H39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>0.57774618034486502</v>
       </c>
       <c r="J39">
         <v>2.4758418360716098E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="30"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="34"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="35"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="37"/>
+        <v>2.4758418360716098E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>10001000</v>
       </c>
       <c r="C40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="26"/>
         <v>0.53125</v>
       </c>
       <c r="D40">
-        <f>ABS(C40-J40)/J40</f>
+        <f t="shared" si="27"/>
         <v>3.5094936908429519E-2</v>
       </c>
       <c r="F40">
         <v>10010011</v>
       </c>
       <c r="G40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="28"/>
         <v>0.57421875</v>
       </c>
       <c r="H40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="29"/>
         <v>4.2948854959271032E-2</v>
       </c>
       <c r="J40">
         <v>0.55057230013683101</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>10010000</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="30"/>
+        <v>0.5625</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="31"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="32"/>
+        <v>10001000</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="33"/>
+        <v>10010000</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="34"/>
+        <v>0.53125</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="35"/>
+        <v>0.5625</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="36"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="37"/>
+        <v>0.55057230013683101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -13921,7 +14963,7 @@
         <v>0.34549802953049763</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -13942,16 +14984,16 @@
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:C54" si="11">BIN2DEC(B45)/2^8</f>
+        <f t="shared" ref="C45:C54" si="38">BIN2DEC(B45)/2^8</f>
         <v>0</v>
       </c>
       <c r="D45">
-        <f>ABS(C45-J45)/J45</f>
+        <f t="shared" ref="D45:D54" si="39">ABS(C45-J45)/J45</f>
         <v>1</v>
       </c>
       <c r="F45">
@@ -13968,251 +15010,601 @@
       <c r="J45">
         <v>1.7657498373193201E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f>BIN2DEC(L45)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f>ABS(C45-M45)</f>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f>B45</f>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f>L45</f>
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <f>C45</f>
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <f>M45</f>
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <f>P45</f>
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <f>J45</f>
+        <v>1.7657498373193201E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="D46">
-        <f>ABS(C46-J46)/J46</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" ref="G46:G54" si="12">BIN2DEC(F46)/2^8</f>
+        <f t="shared" ref="G46:G54" si="40">BIN2DEC(F46)/2^8</f>
         <v>0</v>
       </c>
       <c r="H46">
-        <f t="shared" ref="H46:H54" si="13">ABS(G46-J46)/J46</f>
+        <f t="shared" ref="H46:H54" si="41">ABS(G46-J46)/J46</f>
         <v>1</v>
       </c>
       <c r="J46" s="1">
         <v>2.6505774148872398E-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46:M54" si="42">BIN2DEC(L46)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" ref="P46:P54" si="43">ABS(C46-M46)</f>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f>B46</f>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f>L46</f>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f>C46</f>
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <f>M46</f>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f>P46</f>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f>J46</f>
+        <v>2.6505774148872398E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="D47">
-        <f>ABS(C47-J47)/J47</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J47">
         <v>7.9958604528867496E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ref="R47:R54" si="44">B47</f>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" ref="S47:S54" si="45">L47</f>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" ref="T47:T54" si="46">C47</f>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" ref="U47:U54" si="47">M47</f>
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <f t="shared" ref="V47:V54" si="48">P47</f>
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <f t="shared" ref="W47:W54" si="49">J47</f>
+        <v>7.9958604528867496E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>1100</v>
       </c>
       <c r="C48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>4.6875E-2</v>
       </c>
       <c r="D48">
-        <f>ABS(C48-J48)/J48</f>
+        <f t="shared" si="39"/>
         <v>7.6477162149237637E-2</v>
       </c>
       <c r="F48">
         <v>1011</v>
       </c>
       <c r="G48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>4.296875E-2</v>
       </c>
       <c r="H48">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>1.3229268029865505E-2</v>
       </c>
       <c r="J48">
         <v>4.3544816042740603E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>1011</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="42"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="43"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="44"/>
+        <v>1100</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="45"/>
+        <v>1011</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="46"/>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="47"/>
+        <v>4.296875E-2</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="48"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="49"/>
+        <v>4.3544816042740603E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>101</v>
       </c>
       <c r="C49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>1.953125E-2</v>
       </c>
       <c r="D49">
-        <f>ABS(C49-J49)/J49</f>
+        <f t="shared" si="39"/>
         <v>3.5973706488210896E-2</v>
       </c>
       <c r="F49">
         <v>101</v>
       </c>
       <c r="G49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>1.953125E-2</v>
       </c>
       <c r="H49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>3.5973706488210896E-2</v>
       </c>
       <c r="J49">
         <v>2.02600801777417E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>101</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="42"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="44"/>
+        <v>101</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="45"/>
+        <v>101</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="46"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="47"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="49"/>
+        <v>2.02600801777417E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1111</v>
       </c>
       <c r="C50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>5.859375E-2</v>
       </c>
       <c r="D50">
-        <f>ABS(C50-J50)/J50</f>
+        <f t="shared" si="39"/>
         <v>5.5673858093015824E-2</v>
       </c>
       <c r="F50">
         <v>1101</v>
       </c>
       <c r="G50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>5.078125E-2</v>
       </c>
       <c r="H50">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>8.5082656319386288E-2</v>
       </c>
       <c r="J50">
         <v>5.5503647789331999E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>1110</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="42"/>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="43"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="44"/>
+        <v>1111</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="45"/>
+        <v>1110</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="46"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="47"/>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="48"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="49"/>
+        <v>5.5503647789331999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="D51">
-        <f>ABS(C51-J51)/J51</f>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="J51">
         <v>1.5098476909498699E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="49"/>
+        <v>1.5098476909498699E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>100110</v>
       </c>
       <c r="C52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>0.1484375</v>
       </c>
       <c r="D52">
-        <f>ABS(C52-J52)/J52</f>
+        <f t="shared" si="39"/>
         <v>5.433822513722239E-2</v>
       </c>
       <c r="F52">
         <v>100100</v>
       </c>
       <c r="G52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>0.140625</v>
       </c>
       <c r="H52">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>1.1532603963156302E-3</v>
       </c>
       <c r="J52">
         <v>0.14078736449177001</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>100010</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="42"/>
+        <v>0.1328125</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="43"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="44"/>
+        <v>100110</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="45"/>
+        <v>100010</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="46"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="47"/>
+        <v>0.1328125</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="48"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="49"/>
+        <v>0.14078736449177001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>10</v>
       </c>
       <c r="C53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>7.8125E-3</v>
       </c>
       <c r="D53">
-        <f>ABS(C53-J53)/J53</f>
+        <f t="shared" si="39"/>
         <v>0.19123249840549114</v>
       </c>
       <c r="F53">
         <v>10</v>
       </c>
       <c r="G53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>7.8125E-3</v>
       </c>
       <c r="H53">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>0.19123249840549114</v>
       </c>
       <c r="J53">
         <v>6.5583334995119097E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>10</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="42"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="44"/>
+        <v>10</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="45"/>
+        <v>10</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="46"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="47"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="49"/>
+        <v>6.5583334995119097E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>10011</v>
       </c>
       <c r="C54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="38"/>
         <v>7.421875E-2</v>
       </c>
       <c r="D54">
-        <f>ABS(C54-J54)/J54</f>
+        <f t="shared" si="39"/>
         <v>3.6243801673866934E-2</v>
       </c>
       <c r="F54">
         <v>10011</v>
       </c>
       <c r="G54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="40"/>
         <v>7.421875E-2</v>
       </c>
       <c r="H54">
-        <f t="shared" si="13"/>
+        <f t="shared" si="41"/>
         <v>3.6243801673866934E-2</v>
       </c>
       <c r="J54">
         <v>7.1622865082630993E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>10010</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="42"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="43"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="44"/>
+        <v>10011</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="45"/>
+        <v>10010</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="46"/>
+        <v>7.421875E-2</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="47"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="48"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="49"/>
+        <v>7.1622865082630993E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -14225,7 +15617,7 @@
         <v>0.43629151913131359</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -14245,16 +15637,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C69" si="14">BIN2DEC(B60)/2^8</f>
+        <f t="shared" ref="C60:C69" si="50">BIN2DEC(B60)/2^8</f>
         <v>3.90625E-3</v>
       </c>
       <c r="D60">
-        <f>ABS(C60-J60)/J60</f>
+        <f t="shared" ref="D60:D69" si="51">ABS(C60-J60)/J60</f>
         <v>0.1652858092245289</v>
       </c>
       <c r="F60">
@@ -14271,251 +15663,601 @@
       <c r="J60">
         <v>3.3521819017083201E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <f>BIN2DEC(L60)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P60">
+        <f>ABS(C60-M60)</f>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f>B60</f>
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <f>L60</f>
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <f>C60</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="U60">
+        <f>M60</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V60">
+        <f>P60</f>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f>J60</f>
+        <v>3.3521819017083201E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="D61">
-        <f>ABS(C61-J61)/J61</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <f t="shared" ref="G61:G69" si="15">BIN2DEC(F61)/2^8</f>
+        <f t="shared" ref="G61:G69" si="52">BIN2DEC(F61)/2^8</f>
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" ref="H61:H69" si="16">ABS(G61-J61)/J61</f>
+        <f t="shared" ref="H61:H69" si="53">ABS(G61-J61)/J61</f>
         <v>1</v>
       </c>
       <c r="J61">
         <v>1.7948562073760101E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ref="M61:M69" si="54">BIN2DEC(L61)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" ref="P61:P69" si="55">ABS(C61-M61)</f>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f>B61</f>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f>L61</f>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <f>C61</f>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f>M61</f>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f>P61</f>
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f>J61</f>
+        <v>1.7948562073760101E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <f t="shared" si="14"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="D62">
-        <f>ABS(C62-J62)/J62</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="J62">
         <v>1.2156107557669E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" ref="R62:R69" si="56">B62</f>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" ref="S62:S69" si="57">L62</f>
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <f t="shared" ref="T62:T69" si="58">C62</f>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="shared" ref="U62:U69" si="59">M62</f>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f t="shared" ref="V62:V69" si="60">P62</f>
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f t="shared" ref="W62:W69" si="61">J62</f>
+        <v>1.2156107557669E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>11</v>
       </c>
       <c r="C63">
-        <f t="shared" si="14"/>
+        <f t="shared" si="50"/>
         <v>1.171875E-2</v>
       </c>
       <c r="D63">
-        <f>ABS(C63-J63)/J63</f>
+        <f t="shared" si="51"/>
         <v>8.0631981551396864E-3</v>
       </c>
       <c r="F63">
         <v>11</v>
       </c>
       <c r="G63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="52"/>
         <v>1.171875E-2</v>
       </c>
       <c r="H63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="53"/>
         <v>8.0631981551396864E-3</v>
       </c>
       <c r="J63">
         <v>1.1625015198894801E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>11</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="54"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="57"/>
+        <v>11</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="58"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="59"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="61"/>
+        <v>1.1625015198894801E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>11</v>
       </c>
       <c r="C64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="50"/>
         <v>1.171875E-2</v>
       </c>
       <c r="D64">
-        <f>ABS(C64-J64)/J64</f>
+        <f t="shared" si="51"/>
         <v>0.19643949695617333</v>
       </c>
       <c r="F64">
         <v>11</v>
       </c>
       <c r="G64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="52"/>
         <v>1.171875E-2</v>
       </c>
       <c r="H64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="53"/>
         <v>0.19643949695617333</v>
       </c>
       <c r="J64">
         <v>9.7946866764373197E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>10</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="54"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="55"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="56"/>
+        <v>11</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="58"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="59"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="60"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="61"/>
+        <v>9.7946866764373197E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>10111110</v>
       </c>
       <c r="C65">
-        <f t="shared" si="14"/>
+        <f t="shared" si="50"/>
         <v>0.7421875</v>
       </c>
       <c r="D65">
-        <f>ABS(C65-J65)/J65</f>
+        <f t="shared" si="51"/>
         <v>3.9060107097589284E-3</v>
       </c>
       <c r="F65">
         <v>11000000</v>
       </c>
       <c r="G65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="52"/>
         <v>0.75</v>
       </c>
       <c r="H65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="53"/>
         <v>6.5791891775067671E-3</v>
       </c>
       <c r="J65">
         <v>0.74509786022184499</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>11000001</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="54"/>
+        <v>0.75390625</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="55"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="56"/>
+        <v>10111110</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="57"/>
+        <v>11000001</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="58"/>
+        <v>0.7421875</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="59"/>
+        <v>0.75390625</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="60"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="61"/>
+        <v>0.74509786022184499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="D66">
-        <f>ABS(C66-J66)/J66</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="J66">
         <v>1.42226346109249E-4</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="61"/>
+        <v>1.42226346109249E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>10111000</v>
       </c>
       <c r="C67">
-        <f t="shared" si="14"/>
+        <f t="shared" si="50"/>
         <v>0.71875</v>
       </c>
       <c r="D67">
-        <f>ABS(C67-J67)/J67</f>
+        <f t="shared" si="51"/>
         <v>1.1215797616695004E-2</v>
       </c>
       <c r="F67">
         <v>10111011</v>
       </c>
       <c r="G67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="52"/>
         <v>0.73046875</v>
       </c>
       <c r="H67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="53"/>
         <v>4.90568394390236E-3</v>
       </c>
       <c r="J67">
         <v>0.72690279463159801</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>10111011</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="54"/>
+        <v>0.73046875</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="55"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="56"/>
+        <v>10111000</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="57"/>
+        <v>10111011</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="58"/>
+        <v>0.71875</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="59"/>
+        <v>0.73046875</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="60"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="61"/>
+        <v>0.72690279463159801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>10</v>
       </c>
       <c r="C68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="50"/>
         <v>7.8125E-3</v>
       </c>
       <c r="D68">
-        <f>ABS(C68-J68)/J68</f>
+        <f t="shared" si="51"/>
         <v>3.0610768764278667E-3</v>
       </c>
       <c r="F68">
         <v>10</v>
       </c>
       <c r="G68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="52"/>
         <v>7.8125E-3</v>
       </c>
       <c r="H68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="53"/>
         <v>3.0610768764278667E-3</v>
       </c>
       <c r="J68">
         <v>7.8364880924923306E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>10</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="54"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="56"/>
+        <v>10</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="57"/>
+        <v>10</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="58"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="59"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="61"/>
+        <v>7.8364880924923306E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>1111</v>
       </c>
       <c r="C69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="50"/>
         <v>5.859375E-2</v>
       </c>
       <c r="D69">
-        <f>ABS(C69-J69)/J69</f>
+        <f t="shared" si="51"/>
         <v>5.2729586110318243E-2</v>
       </c>
       <c r="F69">
         <v>10000</v>
       </c>
       <c r="G69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="52"/>
         <v>6.25E-2</v>
       </c>
       <c r="H69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="53"/>
         <v>0.1229115585176728</v>
       </c>
       <c r="J69">
         <v>5.56588802794983E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>1111</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="54"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="56"/>
+        <v>1111</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="57"/>
+        <v>1111</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="58"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="59"/>
+        <v>5.859375E-2</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="61"/>
+        <v>5.56588802794983E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -14528,7 +16270,7 @@
         <v>0.35072460128513516</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -14548,16 +16290,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>11</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C83" si="17">BIN2DEC(B74)/2^8</f>
+        <f t="shared" ref="C74:C83" si="62">BIN2DEC(B74)/2^8</f>
         <v>1.171875E-2</v>
       </c>
       <c r="D74">
-        <f>ABS(C74-J74)/J74</f>
+        <f t="shared" ref="D74:D83" si="63">ABS(C74-J74)/J74</f>
         <v>0.10863889497226388</v>
       </c>
       <c r="F74">
@@ -14574,251 +16316,601 @@
       <c r="J74">
         <v>1.3147028666496899E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>11</v>
+      </c>
+      <c r="M74">
+        <f>BIN2DEC(L74)/2^8</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="P74">
+        <f>ABS(C74-M74)</f>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f>B74</f>
+        <v>11</v>
+      </c>
+      <c r="S74">
+        <f>L74</f>
+        <v>11</v>
+      </c>
+      <c r="T74">
+        <f>C74</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="U74">
+        <f>M74</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="V74">
+        <f>P74</f>
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f>J74</f>
+        <v>1.3147028666496899E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="D75">
-        <f>ABS(C75-J75)/J75</f>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" ref="G75:G83" si="18">BIN2DEC(F75)/2^8</f>
+        <f t="shared" ref="G75:G83" si="64">BIN2DEC(F75)/2^8</f>
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" ref="H75:H83" si="19">ABS(G75-J75)/J75</f>
+        <f t="shared" ref="H75:H83" si="65">ABS(G75-J75)/J75</f>
         <v>1</v>
       </c>
       <c r="J75">
         <v>7.4990904459901902E-4</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ref="M75:M83" si="66">BIN2DEC(L75)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" ref="P75:P83" si="67">ABS(C75-M75)</f>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f>B75</f>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f>L75</f>
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f>C75</f>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f>M75</f>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f>P75</f>
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f>J75</f>
+        <v>7.4990904459901902E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="D76">
-        <f>ABS(C76-J76)/J76</f>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>3.90625E-3</v>
       </c>
       <c r="H76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>0.56637440539753425</v>
       </c>
       <c r="J76">
         <v>2.4938162846248899E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="66"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="67"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R76">
+        <f t="shared" ref="R76:R83" si="68">B76</f>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" ref="S76:S83" si="69">L76</f>
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <f t="shared" ref="T76:T83" si="70">C76</f>
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <f t="shared" ref="U76:U83" si="71">M76</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V76">
+        <f t="shared" ref="V76:V83" si="72">P76</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W76">
+        <f t="shared" ref="W76:W83" si="73">J76</f>
+        <v>2.4938162846248899E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>110</v>
       </c>
       <c r="C77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>2.34375E-2</v>
       </c>
       <c r="D77">
-        <f>ABS(C77-J77)/J77</f>
+        <f t="shared" si="63"/>
         <v>1.9668837447948014E-2</v>
       </c>
       <c r="F77">
         <v>110</v>
       </c>
       <c r="G77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>2.34375E-2</v>
       </c>
       <c r="H77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>1.9668837447948014E-2</v>
       </c>
       <c r="J77">
         <v>2.29854038284233E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>110</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="66"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="68"/>
+        <v>110</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="69"/>
+        <v>110</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="70"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="71"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="73"/>
+        <v>2.29854038284233E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>100</v>
       </c>
       <c r="C78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D78">
-        <f>ABS(C78-J78)/J78</f>
+        <f t="shared" si="63"/>
         <v>1.8713147807056109E-2</v>
       </c>
       <c r="F78">
         <v>100</v>
       </c>
       <c r="G78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>1.5625E-2</v>
       </c>
       <c r="H78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>1.8713147807056109E-2</v>
       </c>
       <c r="J78">
         <v>1.59229688699913E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>100</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="66"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="68"/>
+        <v>100</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="69"/>
+        <v>100</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="70"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="71"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="73"/>
+        <v>1.59229688699913E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>10111000</v>
       </c>
       <c r="C79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>0.71875</v>
       </c>
       <c r="D79">
-        <f>ABS(C79-J79)/J79</f>
+        <f t="shared" si="63"/>
         <v>9.0921393706653517E-3</v>
       </c>
       <c r="F79">
         <v>10111011</v>
       </c>
       <c r="G79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>0.73046875</v>
       </c>
       <c r="H79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>7.0639670526390181E-3</v>
       </c>
       <c r="J79">
         <v>0.72534493726138705</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>10111011</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="66"/>
+        <v>0.73046875</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="67"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="68"/>
+        <v>10111000</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="69"/>
+        <v>10111011</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="70"/>
+        <v>0.71875</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="71"/>
+        <v>0.73046875</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="72"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="73"/>
+        <v>0.72534493726138705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="D80">
-        <f>ABS(C80-J80)/J80</f>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="J80">
         <v>1.2946719933843299E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="73"/>
+        <v>1.2946719933843299E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>10010000</v>
       </c>
       <c r="C81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>0.5625</v>
       </c>
       <c r="D81">
-        <f>ABS(C81-J81)/J81</f>
+        <f t="shared" si="63"/>
         <v>1.6219313418627167E-2</v>
       </c>
       <c r="F81">
         <v>10010011</v>
       </c>
       <c r="G81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>0.57421875</v>
       </c>
       <c r="H81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>4.2761175518181002E-3</v>
       </c>
       <c r="J81">
         <v>0.57177377811174701</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>10011000</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="66"/>
+        <v>0.59375</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="67"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="68"/>
+        <v>10010000</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="69"/>
+        <v>10011000</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="70"/>
+        <v>0.5625</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="71"/>
+        <v>0.59375</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="72"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="73"/>
+        <v>0.57177377811174701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="D82">
-        <f>ABS(C82-J82)/J82</f>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="J82">
         <v>1.0932734885372201E-3</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="73"/>
+        <v>1.0932734885372201E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>10000100</v>
       </c>
       <c r="C83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="62"/>
         <v>0.515625</v>
       </c>
       <c r="D83">
-        <f>ABS(C83-J83)/J83</f>
+        <f t="shared" si="63"/>
         <v>2.9207350485050285E-2</v>
       </c>
       <c r="F83">
         <v>10001101</v>
       </c>
       <c r="G83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="64"/>
         <v>0.55078125</v>
       </c>
       <c r="H83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="65"/>
         <v>3.6983057436423557E-2</v>
       </c>
       <c r="J83">
         <v>0.53113813774509799</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>10001100</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="66"/>
+        <v>0.546875</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="67"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="68"/>
+        <v>10000100</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="69"/>
+        <v>10001100</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="70"/>
+        <v>0.515625</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="71"/>
+        <v>0.546875</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="72"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="73"/>
+        <v>0.53113813774509799</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -14831,7 +16923,7 @@
         <v>0.3841561006063734</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -14851,16 +16943,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <f t="shared" ref="C88:C97" si="20">BIN2DEC(B88)/2^8</f>
+        <f t="shared" ref="C88:C97" si="74">BIN2DEC(B88)/2^8</f>
         <v>0</v>
       </c>
       <c r="D88">
-        <f>ABS(C88-J88)/J88</f>
+        <f t="shared" ref="D88:D97" si="75">ABS(C88-J88)/J88</f>
         <v>1</v>
       </c>
       <c r="F88">
@@ -14877,251 +16969,601 @@
       <c r="J88">
         <v>7.2292200002337201E-4</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <f>BIN2DEC(L88)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <f>ABS(C88-M88)</f>
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <f>B88</f>
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <f>L88</f>
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <f>C88</f>
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <f>M88</f>
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <f>P88</f>
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <f>J88</f>
+        <v>7.2292200002337201E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="D89">
-        <f>ABS(C89-J89)/J89</f>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <f t="shared" ref="G89:G97" si="21">BIN2DEC(F89)/2^8</f>
+        <f t="shared" ref="G89:G97" si="76">BIN2DEC(F89)/2^8</f>
         <v>0</v>
       </c>
       <c r="H89">
-        <f t="shared" ref="H89:H97" si="22">ABS(G89-J89)/J89</f>
+        <f t="shared" ref="H89:H97" si="77">ABS(G89-J89)/J89</f>
         <v>1</v>
       </c>
       <c r="J89">
         <v>6.7165891354028595E-4</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f t="shared" ref="M89:M97" si="78">BIN2DEC(L89)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <f t="shared" ref="P89:P97" si="79">ABS(C89-M89)</f>
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <f>B89</f>
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <f>L89</f>
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <f>C89</f>
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <f>M89</f>
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <f>P89</f>
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <f>J89</f>
+        <v>6.7165891354028595E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="D90">
-        <f>ABS(C90-J90)/J90</f>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="H90">
-        <f t="shared" si="22"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="J90">
         <v>5.6498385421534399E-4</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <f t="shared" ref="R90:R97" si="80">B90</f>
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <f t="shared" ref="S90:S97" si="81">L90</f>
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <f t="shared" ref="T90:T97" si="82">C90</f>
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <f t="shared" ref="U90:U97" si="83">M90</f>
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <f t="shared" ref="V90:V97" si="84">P90</f>
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <f t="shared" ref="W90:W97" si="85">J90</f>
+        <v>5.6498385421534399E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>10010</v>
       </c>
       <c r="C91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="74"/>
         <v>7.03125E-2</v>
       </c>
       <c r="D91">
-        <f>ABS(C91-J91)/J91</f>
+        <f t="shared" si="75"/>
         <v>1.625365606773916E-2</v>
       </c>
       <c r="F91">
         <v>10011</v>
       </c>
       <c r="G91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="76"/>
         <v>7.421875E-2</v>
       </c>
       <c r="H91">
-        <f t="shared" si="22"/>
+        <f t="shared" si="77"/>
         <v>3.8398918595164221E-2</v>
       </c>
       <c r="J91">
         <v>7.14742173464602E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>10001</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="78"/>
+        <v>6.640625E-2</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="79"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="80"/>
+        <v>10010</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="81"/>
+        <v>10001</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="82"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="83"/>
+        <v>6.640625E-2</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="84"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="85"/>
+        <v>7.14742173464602E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="74"/>
         <v>3.90625E-3</v>
       </c>
       <c r="D92">
-        <f>ABS(C92-J92)/J92</f>
+        <f t="shared" si="75"/>
         <v>0.23015818450109138</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="76"/>
         <v>3.90625E-3</v>
       </c>
       <c r="H92">
-        <f t="shared" si="22"/>
+        <f t="shared" si="77"/>
         <v>0.23015818450109138</v>
       </c>
       <c r="J92">
         <v>5.07409434166484E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="78"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="82"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="83"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="85"/>
+        <v>5.07409434166484E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>11001010</v>
       </c>
       <c r="C93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="74"/>
         <v>0.7890625</v>
       </c>
       <c r="D93">
-        <f>ABS(C93-J93)/J93</f>
+        <f t="shared" si="75"/>
         <v>1.2942983313331349E-2</v>
       </c>
       <c r="F93">
         <v>11001101</v>
       </c>
       <c r="G93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="76"/>
         <v>0.80078125</v>
       </c>
       <c r="H93">
-        <f t="shared" si="22"/>
+        <f t="shared" si="77"/>
         <v>1.7162793107280865E-3</v>
       </c>
       <c r="J93">
         <v>0.799409240459794</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>11001111</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="78"/>
+        <v>0.80859375</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="79"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="80"/>
+        <v>11001010</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="81"/>
+        <v>11001111</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="82"/>
+        <v>0.7890625</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="83"/>
+        <v>0.80859375</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="84"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="85"/>
+        <v>0.799409240459794</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="D94">
-        <f>ABS(C94-J94)/J94</f>
+        <f t="shared" si="75"/>
         <v>1</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="H94">
-        <f t="shared" si="22"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="J94">
         <v>1.88981992167163E-4</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="85"/>
+        <v>1.88981992167163E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>10010000</v>
       </c>
       <c r="C95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="74"/>
         <v>0.5625</v>
       </c>
       <c r="D95">
-        <f>ABS(C95-J95)/J95</f>
+        <f t="shared" si="75"/>
         <v>1.7363508427592045E-2</v>
       </c>
       <c r="F95">
         <v>10010011</v>
       </c>
       <c r="G95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="76"/>
         <v>0.57421875</v>
       </c>
       <c r="H95">
-        <f t="shared" si="22"/>
+        <f t="shared" si="77"/>
         <v>3.1080851468331221E-3</v>
       </c>
       <c r="J95">
         <v>0.57243955910887401</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>10010100</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="78"/>
+        <v>0.578125</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="79"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="80"/>
+        <v>10010000</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="81"/>
+        <v>10010100</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="82"/>
+        <v>0.5625</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="83"/>
+        <v>0.578125</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="84"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="85"/>
+        <v>0.57243955910887401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>1000</v>
       </c>
       <c r="C96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="74"/>
         <v>3.125E-2</v>
       </c>
       <c r="D96">
-        <f>ABS(C96-J96)/J96</f>
+        <f t="shared" si="75"/>
         <v>6.4528801655577339E-2</v>
       </c>
       <c r="F96">
         <v>1000</v>
       </c>
       <c r="G96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="76"/>
         <v>3.125E-2</v>
       </c>
       <c r="H96">
-        <f t="shared" si="22"/>
+        <f t="shared" si="77"/>
         <v>6.4528801655577339E-2</v>
       </c>
       <c r="J96">
         <v>2.9355711138486201E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>1000</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="78"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="80"/>
+        <v>1000</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="81"/>
+        <v>1000</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="82"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="83"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="85"/>
+        <v>2.9355711138486201E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>1101100</v>
       </c>
       <c r="C97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="74"/>
         <v>0.421875</v>
       </c>
       <c r="D97">
-        <f>ABS(C97-J97)/J97</f>
+        <f t="shared" si="75"/>
         <v>4.0450779365070785E-2</v>
       </c>
       <c r="F97">
         <v>1100111</v>
       </c>
       <c r="G97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="76"/>
         <v>0.40234375</v>
       </c>
       <c r="H97">
-        <f t="shared" si="22"/>
+        <f t="shared" si="77"/>
         <v>7.7182381981269338E-3</v>
       </c>
       <c r="J97">
         <v>0.40547328943080502</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>1101000</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="78"/>
+        <v>0.40625</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="79"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="80"/>
+        <v>1101100</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="81"/>
+        <v>1101000</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="82"/>
+        <v>0.421875</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="83"/>
+        <v>0.40625</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="84"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="85"/>
+        <v>0.40547328943080502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>14</v>
       </c>
@@ -15134,7 +17576,7 @@
         <v>0.43456285074075207</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -15154,12 +17596,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>1</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:C111" si="23">BIN2DEC(B102)/2^8</f>
+        <f t="shared" ref="C102:C111" si="86">BIN2DEC(B102)/2^8</f>
         <v>3.90625E-3</v>
       </c>
       <c r="D102">
@@ -15180,24 +17622,59 @@
       <c r="J102">
         <v>3.1667242737500999E-3</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <f>BIN2DEC(L102)/2^8</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P102">
+        <f>ABS(C102-M102)</f>
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <f>B102</f>
+        <v>1</v>
+      </c>
+      <c r="S102">
+        <f>L102</f>
+        <v>1</v>
+      </c>
+      <c r="T102">
+        <f>C102</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="U102">
+        <f>M102</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V102">
+        <f>P102</f>
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <f>J102</f>
+        <v>3.1667242737500999E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>100</v>
       </c>
       <c r="C103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="86"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" ref="D103:D111" si="24">ABS(C103-J103)/ABS(J103)</f>
+        <f t="shared" ref="D103:D111" si="87">ABS(C103-J103)/ABS(J103)</f>
         <v>0.11371495226576264</v>
       </c>
       <c r="F103">
         <v>11</v>
       </c>
       <c r="G103">
-        <f t="shared" ref="G103:G111" si="25">BIN2DEC(F103)/2^8</f>
+        <f t="shared" ref="G103:G111" si="88">BIN2DEC(F103)/2^8</f>
         <v>1.171875E-2</v>
       </c>
       <c r="H103">
@@ -15207,224 +17684,539 @@
       <c r="J103">
         <v>1.40296221831378E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>11</v>
+      </c>
+      <c r="M103">
+        <f t="shared" ref="M103:M111" si="89">BIN2DEC(L103)/2^8</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="P103">
+        <f t="shared" ref="P103:P111" si="90">ABS(C103-M103)</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R103">
+        <f>B103</f>
+        <v>100</v>
+      </c>
+      <c r="S103">
+        <f>L103</f>
+        <v>11</v>
+      </c>
+      <c r="T103">
+        <f>C103</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="U103">
+        <f>M103</f>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="V103">
+        <f>P103</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W103">
+        <f>J103</f>
+        <v>1.40296221831378E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
-        <f t="shared" si="23"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="D104">
-        <f t="shared" si="24"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <f t="shared" si="25"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H103:H111" si="26">(ABS(G104-J104))/ABS(J104)</f>
+        <f t="shared" ref="H104:H111" si="91">(ABS(G104-J104))/ABS(J104)</f>
         <v>1</v>
       </c>
       <c r="J104">
         <v>5.0568629608188805E-4</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <f t="shared" ref="R104:R111" si="92">B104</f>
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <f t="shared" ref="S104:S111" si="93">L104</f>
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <f t="shared" ref="T104:T111" si="94">C104</f>
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <f t="shared" ref="U104:U111" si="95">M104</f>
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <f t="shared" ref="V104:V111" si="96">P104</f>
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <f t="shared" ref="W104:W111" si="97">J104</f>
+        <v>5.0568629608188805E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>1001</v>
       </c>
       <c r="C105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="86"/>
         <v>3.515625E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="24"/>
+        <f t="shared" si="87"/>
         <v>1.0438030197260691E-2</v>
       </c>
       <c r="F105">
         <v>1000</v>
       </c>
       <c r="G105">
-        <f t="shared" si="25"/>
+        <f t="shared" si="88"/>
         <v>3.125E-2</v>
       </c>
       <c r="H105">
-        <f t="shared" si="26"/>
+        <f t="shared" si="91"/>
         <v>0.10183286204687939</v>
       </c>
       <c r="J105">
         <v>3.4793078792903998E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>1001</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="89"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="92"/>
+        <v>1001</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="93"/>
+        <v>1001</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="94"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="95"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="97"/>
+        <v>3.4793078792903998E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>101</v>
       </c>
       <c r="C106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="86"/>
         <v>1.953125E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="24"/>
+        <f t="shared" si="87"/>
         <v>4.5893562069098642E-2</v>
       </c>
       <c r="F106">
         <v>101</v>
       </c>
       <c r="G106">
-        <f t="shared" si="25"/>
+        <f t="shared" si="88"/>
         <v>1.953125E-2</v>
       </c>
       <c r="H106">
-        <f t="shared" si="26"/>
+        <f t="shared" si="91"/>
         <v>4.5893562069098642E-2</v>
       </c>
       <c r="J106">
         <v>1.8674223370646999E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>101</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="89"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="92"/>
+        <v>101</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="93"/>
+        <v>101</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="94"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="95"/>
+        <v>1.953125E-2</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="97"/>
+        <v>1.8674223370646999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>10101110</v>
       </c>
       <c r="C107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="86"/>
         <v>0.6796875</v>
       </c>
       <c r="D107">
-        <f t="shared" si="24"/>
+        <f t="shared" si="87"/>
         <v>1.1910799608795193E-2</v>
       </c>
       <c r="F107">
         <v>10110001</v>
       </c>
       <c r="G107">
-        <f t="shared" si="25"/>
+        <f t="shared" si="88"/>
         <v>0.69140625</v>
       </c>
       <c r="H107">
-        <f t="shared" si="26"/>
+        <f t="shared" si="91"/>
         <v>5.1252210876048905E-3</v>
       </c>
       <c r="J107">
         <v>0.68788070928302603</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>10110001</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="89"/>
+        <v>0.69140625</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="90"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="92"/>
+        <v>10101110</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="93"/>
+        <v>10110001</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="94"/>
+        <v>0.6796875</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="95"/>
+        <v>0.69140625</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="96"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="97"/>
+        <v>0.68788070928302603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>0</v>
       </c>
       <c r="C108">
-        <f t="shared" si="23"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="D108">
-        <f t="shared" si="24"/>
+        <f t="shared" si="87"/>
         <v>1</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <f t="shared" si="25"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="H108">
-        <f t="shared" si="26"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
       <c r="J108">
         <v>1.19462548084268E-4</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="97"/>
+        <v>1.19462548084268E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>1100100</v>
       </c>
       <c r="C109">
-        <f t="shared" si="23"/>
+        <f t="shared" si="86"/>
         <v>0.390625</v>
       </c>
       <c r="D109">
-        <f t="shared" si="24"/>
+        <f t="shared" si="87"/>
         <v>1.1615385960990137E-2</v>
       </c>
       <c r="F109">
         <v>1100111</v>
       </c>
       <c r="G109">
-        <f t="shared" si="25"/>
+        <f t="shared" si="88"/>
         <v>0.40234375</v>
       </c>
       <c r="H109">
-        <f t="shared" si="26"/>
+        <f t="shared" si="91"/>
         <v>4.196384753981984E-2</v>
       </c>
       <c r="J109">
         <v>0.38613983676110603</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>1100100</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="89"/>
+        <v>0.390625</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="92"/>
+        <v>1100100</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="93"/>
+        <v>1100100</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="94"/>
+        <v>0.390625</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="95"/>
+        <v>0.390625</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="97"/>
+        <v>0.38613983676110603</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>1</v>
       </c>
       <c r="C110">
-        <f t="shared" si="23"/>
+        <f t="shared" si="86"/>
         <v>3.90625E-3</v>
       </c>
       <c r="D110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="87"/>
         <v>0.36770768471390675</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110">
-        <f t="shared" si="25"/>
+        <f t="shared" si="88"/>
         <v>3.90625E-3</v>
       </c>
       <c r="H110">
-        <f t="shared" si="26"/>
+        <f t="shared" si="91"/>
         <v>0.36770768471390675</v>
       </c>
       <c r="J110">
         <v>2.8560561907035702E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="89"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="94"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="95"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="97"/>
+        <v>2.8560561907035702E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>10010100</v>
       </c>
       <c r="C111">
-        <f t="shared" si="23"/>
+        <f t="shared" si="86"/>
         <v>0.578125</v>
       </c>
       <c r="D111">
-        <f t="shared" si="24"/>
+        <f t="shared" si="87"/>
         <v>1.088965178462337E-2</v>
       </c>
       <c r="F111">
         <v>10011001</v>
       </c>
       <c r="G111">
-        <f t="shared" si="25"/>
+        <f t="shared" si="88"/>
         <v>0.59765625</v>
       </c>
       <c r="H111">
-        <f t="shared" si="26"/>
+        <f t="shared" si="91"/>
         <v>2.2526238357788005E-2</v>
       </c>
       <c r="J111">
         <v>0.58448989138885699</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>10011000</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="89"/>
+        <v>0.59375</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="90"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="92"/>
+        <v>10010100</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="93"/>
+        <v>10011000</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="94"/>
+        <v>0.578125</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="95"/>
+        <v>0.59375</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="96"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="97"/>
+        <v>0.58448989138885699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -15437,7 +18229,7 @@
         <v>0.29832933931705136</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -15457,12 +18249,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>10</v>
       </c>
       <c r="C116">
-        <f t="shared" ref="C116:C125" si="27">BIN2DEC(B116)/2^8</f>
+        <f t="shared" ref="C116:C125" si="98">BIN2DEC(B116)/2^8</f>
         <v>7.8125E-3</v>
       </c>
       <c r="D116">
@@ -15483,251 +18275,601 @@
       <c r="J116">
         <v>7.16306255024113E-3</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>10</v>
+      </c>
+      <c r="M116">
+        <f>BIN2DEC(L116)/2^8</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P116">
+        <f>ABS(C116-M116)</f>
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <f>B116</f>
+        <v>10</v>
+      </c>
+      <c r="S116">
+        <f>L116</f>
+        <v>10</v>
+      </c>
+      <c r="T116">
+        <f>C116</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="U116">
+        <f>M116</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="V116">
+        <f>P116</f>
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <f>J116</f>
+        <v>7.16306255024113E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <f t="shared" si="27"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="D117">
-        <f t="shared" ref="D117:D125" si="28">ABS(C117-J117)/ABS(J117)</f>
+        <f t="shared" ref="D117:D125" si="99">ABS(C117-J117)/ABS(J117)</f>
         <v>1</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <f t="shared" ref="G117:G125" si="29">BIN2DEC(F117)/2^8</f>
+        <f t="shared" ref="G117:G125" si="100">BIN2DEC(F117)/2^8</f>
         <v>0</v>
       </c>
       <c r="H117">
-        <f t="shared" ref="H117:H125" si="30">ABS(G117-J117)/ABS(J117)</f>
+        <f t="shared" ref="H117:H125" si="101">ABS(G117-J117)/ABS(J117)</f>
         <v>1</v>
       </c>
       <c r="J117">
         <v>4.59604882933609E-4</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <f t="shared" ref="M117:M125" si="102">BIN2DEC(L117)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <f t="shared" ref="P117:P125" si="103">ABS(C117-M117)</f>
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <f>B117</f>
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <f>L117</f>
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <f>C117</f>
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <f>M117</f>
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <f>P117</f>
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <f>J117</f>
+        <v>4.59604882933609E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118">
-        <f t="shared" si="27"/>
+        <f t="shared" si="98"/>
         <v>3.90625E-3</v>
       </c>
       <c r="D118">
-        <f t="shared" si="28"/>
+        <f t="shared" si="99"/>
         <v>0.50727768414358365</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118">
-        <f t="shared" si="29"/>
+        <f t="shared" si="100"/>
         <v>3.90625E-3</v>
       </c>
       <c r="H118">
-        <f t="shared" si="30"/>
+        <f t="shared" si="101"/>
         <v>0.50727768414358365</v>
       </c>
       <c r="J118">
         <v>2.59159280409534E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="102"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <f t="shared" ref="R118:R125" si="104">B118</f>
+        <v>1</v>
+      </c>
+      <c r="S118">
+        <f t="shared" ref="S118:S125" si="105">L118</f>
+        <v>1</v>
+      </c>
+      <c r="T118">
+        <f t="shared" ref="T118:T125" si="106">C118</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="U118">
+        <f t="shared" ref="U118:U125" si="107">M118</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="V118">
+        <f t="shared" ref="V118:V125" si="108">P118</f>
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <f t="shared" ref="W118:W125" si="109">J118</f>
+        <v>2.59159280409534E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>1010</v>
       </c>
       <c r="C119">
-        <f t="shared" si="27"/>
+        <f t="shared" si="98"/>
         <v>3.90625E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="28"/>
+        <f t="shared" si="99"/>
         <v>9.7402840001852078E-2</v>
       </c>
       <c r="F119">
         <v>1001</v>
       </c>
       <c r="G119">
-        <f t="shared" si="29"/>
+        <f t="shared" si="100"/>
         <v>3.515625E-2</v>
       </c>
       <c r="H119">
-        <f t="shared" si="30"/>
+        <f t="shared" si="101"/>
         <v>1.233744399833313E-2</v>
       </c>
       <c r="J119">
         <v>3.5595406332221698E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>1001</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="102"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="103"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="104"/>
+        <v>1010</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="105"/>
+        <v>1001</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="106"/>
+        <v>3.90625E-2</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="107"/>
+        <v>3.515625E-2</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="108"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="W119">
+        <f t="shared" si="109"/>
+        <v>3.5595406332221698E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>0</v>
       </c>
       <c r="C120">
-        <f t="shared" si="27"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="D120">
-        <f t="shared" si="28"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
       <c r="F120">
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" si="29"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="H120">
-        <f t="shared" si="30"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="J120">
         <v>1.35074153593117E-3</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="109"/>
+        <v>1.35074153593117E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>10101010</v>
       </c>
       <c r="C121">
-        <f t="shared" si="27"/>
+        <f t="shared" si="98"/>
         <v>0.6640625</v>
       </c>
       <c r="D121">
-        <f t="shared" si="28"/>
+        <f t="shared" si="99"/>
         <v>2.9912346775298689E-2</v>
       </c>
       <c r="F121">
         <v>10110001</v>
       </c>
       <c r="G121">
-        <f t="shared" si="29"/>
+        <f t="shared" si="100"/>
         <v>0.69140625</v>
       </c>
       <c r="H121">
-        <f t="shared" si="30"/>
+        <f t="shared" si="101"/>
         <v>1.0032438945718425E-2</v>
       </c>
       <c r="J121">
         <v>0.68453865771053501</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>10101110</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="102"/>
+        <v>0.6796875</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="103"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="104"/>
+        <v>10101010</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="105"/>
+        <v>10101110</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="106"/>
+        <v>0.6640625</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="107"/>
+        <v>0.6796875</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="108"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="W121">
+        <f t="shared" si="109"/>
+        <v>0.68453865771053501</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>0</v>
       </c>
       <c r="C122">
-        <f t="shared" si="27"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="D122">
-        <f t="shared" si="28"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122">
-        <f t="shared" si="29"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="H122">
-        <f t="shared" si="30"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="J122">
         <v>8.1898418428390696E-4</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="109"/>
+        <v>8.1898418428390696E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>1101100</v>
       </c>
       <c r="C123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="98"/>
         <v>0.421875</v>
       </c>
       <c r="D123">
-        <f t="shared" si="28"/>
+        <f t="shared" si="99"/>
         <v>1.7212102066279905E-2</v>
       </c>
       <c r="F123">
         <v>1101101</v>
       </c>
       <c r="G123">
-        <f t="shared" si="29"/>
+        <f t="shared" si="100"/>
         <v>0.42578125</v>
       </c>
       <c r="H123">
-        <f t="shared" si="30"/>
+        <f t="shared" si="101"/>
         <v>2.6630732640967682E-2</v>
       </c>
       <c r="J123">
         <v>0.41473651281088603</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>1101100</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="102"/>
+        <v>0.421875</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="104"/>
+        <v>1101100</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="105"/>
+        <v>1101100</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="106"/>
+        <v>0.421875</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="107"/>
+        <v>0.421875</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="109"/>
+        <v>0.41473651281088603</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>0</v>
       </c>
       <c r="C124">
-        <f t="shared" si="27"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="D124">
-        <f t="shared" si="28"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <f t="shared" si="29"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="H124">
-        <f t="shared" si="30"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="J124">
         <v>3.5212403774687701E-4</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="109"/>
+        <v>3.5212403774687701E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>10000000</v>
       </c>
       <c r="C125">
-        <f t="shared" si="27"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="D125">
-        <f t="shared" si="28"/>
+        <f t="shared" si="99"/>
         <v>2.9903302488883728E-3</v>
       </c>
       <c r="F125">
         <v>10000000</v>
       </c>
       <c r="G125">
-        <f t="shared" si="29"/>
+        <f t="shared" si="100"/>
         <v>0.5</v>
       </c>
       <c r="H125">
-        <f t="shared" si="30"/>
+        <f t="shared" si="101"/>
         <v>2.9903302488883728E-3</v>
       </c>
       <c r="J125">
         <v>0.498509292583037</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>10000100</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="102"/>
+        <v>0.515625</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="103"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="104"/>
+        <v>10000000</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="105"/>
+        <v>10000100</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="106"/>
+        <v>0.5</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="107"/>
+        <v>0.515625</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="108"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="109"/>
+        <v>0.498509292583037</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -15740,7 +18882,7 @@
         <v>0.46499334043255819</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -15760,12 +18902,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>10</v>
       </c>
       <c r="C130">
-        <f t="shared" ref="C130:C139" si="31">BIN2DEC(B130)/2^8</f>
+        <f t="shared" ref="C130:C139" si="110">BIN2DEC(B130)/2^8</f>
         <v>7.8125E-3</v>
       </c>
       <c r="D130">
@@ -15786,251 +18928,601 @@
       <c r="J130">
         <v>7.9224927248375005E-3</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>10</v>
+      </c>
+      <c r="M130">
+        <f>BIN2DEC(L130)/2^8</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P130">
+        <f>ABS(C130-M130)</f>
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <f>B130</f>
+        <v>10</v>
+      </c>
+      <c r="S130">
+        <f>L130</f>
+        <v>10</v>
+      </c>
+      <c r="T130">
+        <f>C130</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="U130">
+        <f>M130</f>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="V130">
+        <f>P130</f>
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <f>J130</f>
+        <v>7.9224927248375005E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>0</v>
       </c>
       <c r="C131">
-        <f t="shared" si="31"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D139" si="32">ABS(C131-J131)/ABS(J131)</f>
+        <f t="shared" ref="D131:D139" si="111">ABS(C131-J131)/ABS(J131)</f>
         <v>1</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" ref="G131:G139" si="33">BIN2DEC(F131)/2^8</f>
+        <f t="shared" ref="G131:G139" si="112">BIN2DEC(F131)/2^8</f>
         <v>0</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H139" si="34">ABS(G131-J131)/ABS(J131)</f>
+        <f t="shared" ref="H131:H139" si="113">ABS(G131-J131)/ABS(J131)</f>
         <v>1</v>
       </c>
       <c r="J131">
         <v>1.6196183983875499E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <f t="shared" ref="M131:M139" si="114">BIN2DEC(L131)/2^8</f>
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P139" si="115">ABS(C131-M131)</f>
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <f>B131</f>
+        <v>0</v>
+      </c>
+      <c r="S131">
+        <f>L131</f>
+        <v>0</v>
+      </c>
+      <c r="T131">
+        <f>C131</f>
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <f>M131</f>
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <f>P131</f>
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <f>J131</f>
+        <v>1.6196183983875499E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>0</v>
       </c>
       <c r="C132">
-        <f t="shared" si="31"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="D132">
-        <f t="shared" si="32"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="F132">
         <v>0</v>
       </c>
       <c r="G132">
-        <f t="shared" si="33"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="H132">
-        <f t="shared" si="34"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="J132">
         <v>9.2423425176403704E-4</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <f t="shared" ref="R132:R139" si="116">B132</f>
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <f t="shared" ref="S132:S139" si="117">L132</f>
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <f t="shared" ref="T132:T139" si="118">C132</f>
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <f t="shared" ref="U132:U139" si="119">M132</f>
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <f t="shared" ref="V132:V139" si="120">P132</f>
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <f t="shared" ref="W132:W139" si="121">J132</f>
+        <v>9.2423425176403704E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>11</v>
       </c>
       <c r="C133">
-        <f t="shared" si="31"/>
+        <f t="shared" si="110"/>
         <v>1.171875E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="32"/>
+        <f t="shared" si="111"/>
         <v>2.7215621094514097E-2</v>
       </c>
       <c r="F133">
         <v>11</v>
       </c>
       <c r="G133">
-        <f t="shared" si="33"/>
+        <f t="shared" si="112"/>
         <v>1.171875E-2</v>
       </c>
       <c r="H133">
-        <f t="shared" si="34"/>
+        <f t="shared" si="113"/>
         <v>2.7215621094514097E-2</v>
       </c>
       <c r="J133">
         <v>1.20466058605764E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>11</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="114"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="116"/>
+        <v>11</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="117"/>
+        <v>11</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="118"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="119"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="V133">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <f t="shared" si="121"/>
+        <v>1.20466058605764E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>110</v>
       </c>
       <c r="C134">
-        <f t="shared" si="31"/>
+        <f t="shared" si="110"/>
         <v>2.34375E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="32"/>
+        <f t="shared" si="111"/>
         <v>4.069213475083918E-2</v>
       </c>
       <c r="F134">
         <v>110</v>
       </c>
       <c r="G134">
-        <f t="shared" si="33"/>
+        <f t="shared" si="112"/>
         <v>2.34375E-2</v>
       </c>
       <c r="H134">
-        <f t="shared" si="34"/>
+        <f t="shared" si="113"/>
         <v>4.069213475083918E-2</v>
       </c>
       <c r="J134">
         <v>2.4431677096604001E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>110</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="114"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="116"/>
+        <v>110</v>
+      </c>
+      <c r="S134">
+        <f t="shared" si="117"/>
+        <v>110</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="118"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="119"/>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="V134">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <f t="shared" si="121"/>
+        <v>2.4431677096604001E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>1011001</v>
       </c>
       <c r="C135">
-        <f t="shared" si="31"/>
+        <f t="shared" si="110"/>
         <v>0.34765625</v>
       </c>
       <c r="D135">
-        <f t="shared" si="32"/>
+        <f t="shared" si="111"/>
         <v>9.3415220309065131E-3</v>
       </c>
       <c r="F135">
         <v>1010101</v>
       </c>
       <c r="G135">
-        <f t="shared" si="33"/>
+        <f t="shared" si="112"/>
         <v>0.33203125</v>
       </c>
       <c r="H135">
-        <f t="shared" si="34"/>
+        <f t="shared" si="113"/>
         <v>3.6022141880594903E-2</v>
       </c>
       <c r="J135">
         <v>0.34443866858907901</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>1011001</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="114"/>
+        <v>0.34765625</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="116"/>
+        <v>1011001</v>
+      </c>
+      <c r="S135">
+        <f t="shared" si="117"/>
+        <v>1011001</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="118"/>
+        <v>0.34765625</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="119"/>
+        <v>0.34765625</v>
+      </c>
+      <c r="V135">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <f t="shared" si="121"/>
+        <v>0.34443866858907901</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>0</v>
       </c>
       <c r="C136">
-        <f t="shared" si="31"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="D136">
-        <f t="shared" si="32"/>
+        <f t="shared" si="111"/>
         <v>1</v>
       </c>
       <c r="F136">
         <v>0</v>
       </c>
       <c r="G136">
-        <f t="shared" si="33"/>
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="H136">
-        <f t="shared" si="34"/>
+        <f t="shared" si="113"/>
         <v>1</v>
       </c>
       <c r="J136">
         <v>1.9935683426640301E-4</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="S136">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <f t="shared" si="121"/>
+        <v>1.9935683426640301E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>100010</v>
       </c>
       <c r="C137">
-        <f t="shared" si="31"/>
+        <f t="shared" si="110"/>
         <v>0.1328125</v>
       </c>
       <c r="D137">
-        <f t="shared" si="32"/>
+        <f t="shared" si="111"/>
         <v>5.7562744672885531E-2</v>
       </c>
       <c r="F137">
         <v>100001</v>
       </c>
       <c r="G137">
-        <f t="shared" si="33"/>
+        <f t="shared" si="112"/>
         <v>0.12890625</v>
       </c>
       <c r="H137">
-        <f t="shared" si="34"/>
+        <f t="shared" si="113"/>
         <v>2.6457958064859486E-2</v>
       </c>
       <c r="J137">
         <v>0.125583565295769</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L137">
+        <v>11111</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="114"/>
+        <v>0.12109375</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="115"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="116"/>
+        <v>100010</v>
+      </c>
+      <c r="S137">
+        <f t="shared" si="117"/>
+        <v>11111</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="118"/>
+        <v>0.1328125</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="119"/>
+        <v>0.12109375</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="120"/>
+        <v>1.171875E-2</v>
+      </c>
+      <c r="W137">
+        <f t="shared" si="121"/>
+        <v>0.125583565295769</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>100</v>
       </c>
       <c r="C138">
-        <f t="shared" si="31"/>
+        <f t="shared" si="110"/>
         <v>1.5625E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="32"/>
+        <f t="shared" si="111"/>
         <v>5.7384009102541357E-2</v>
       </c>
       <c r="F138">
         <v>100</v>
       </c>
       <c r="G138">
-        <f t="shared" si="33"/>
+        <f t="shared" si="112"/>
         <v>1.5625E-2</v>
       </c>
       <c r="H138">
-        <f t="shared" si="34"/>
+        <f t="shared" si="113"/>
         <v>5.7384009102541357E-2</v>
       </c>
       <c r="J138">
         <v>1.47770345167805E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <v>100</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="114"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="116"/>
+        <v>100</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="117"/>
+        <v>100</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="118"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="119"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <f t="shared" si="121"/>
+        <v>1.47770345167805E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>111</v>
       </c>
       <c r="C139">
-        <f t="shared" si="31"/>
+        <f t="shared" si="110"/>
         <v>2.734375E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="32"/>
+        <f t="shared" si="111"/>
         <v>7.1835068084734346E-2</v>
       </c>
       <c r="F139">
         <v>111</v>
       </c>
       <c r="G139">
-        <f t="shared" si="33"/>
+        <f t="shared" si="112"/>
         <v>2.734375E-2</v>
       </c>
       <c r="H139">
-        <f t="shared" si="34"/>
+        <f t="shared" si="113"/>
         <v>7.1835068084734346E-2</v>
       </c>
       <c r="J139">
         <v>2.5511154480941399E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>111</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="114"/>
+        <v>2.734375E-2</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="116"/>
+        <v>111</v>
+      </c>
+      <c r="S139">
+        <f t="shared" si="117"/>
+        <v>111</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="118"/>
+        <v>2.734375E-2</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="119"/>
+        <v>2.734375E-2</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <f t="shared" si="121"/>
+        <v>2.5511154480941399E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -16045,5 +19537,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>